--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>URL</t>
   </si>
@@ -34,19 +34,73 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://www.bioparcvalencia.es/</t>
-  </si>
-  <si>
-    <t>3dcard_preview_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BIOPARC_VALENCIA/2024/1/3dcard/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.bioparcvalencia.es/" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+    <t>https://www.sandos.com/es/atrapa-el-calor</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=300x600&amp;tc_alt=120930" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120930.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
     <t>600</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=300x250&amp;tc_alt=120931" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120931.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=320x100&amp;tc_alt=120932" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120932.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=970x250&amp;tc_alt=120934" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120934.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=300x600&amp;tc_alt=120936" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120936.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=300x250&amp;tc_alt=120937" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120937.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=320x100&amp;tc_alt=120938" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120938.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=970x250&amp;tc_alt=120940" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120940.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -391,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,10 +491,164 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="C9" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>URL</t>
   </si>
@@ -34,73 +34,100 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://www.sandos.com/es/atrapa-el-calor</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=300x600&amp;tc_alt=120930" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120930.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>https://www.tumundo.cl/planes-movil/portabilidad-10/</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_160x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120402" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120402.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120403" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x250.jpg" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120403.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=300x250&amp;tc_alt=120931" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120931.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>250</t>
   </si>
   <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=320x100&amp;tc_alt=120932" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120932.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>320</t>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120404" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120404.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x100</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120405" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x100.jpg" width="300" height="100"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120405.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_prs-1_ENERO_24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/prs/es/esp/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=always-on&amp;utm_content=970x250&amp;tc_alt=120934" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120934.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_728x90</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120406" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120406.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_970x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120407" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120407.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=300x600&amp;tc_alt=120936" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120936.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=300x250&amp;tc_alt=120937" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120937.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=320x100&amp;tc_alt=120938" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120938.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>sandos-es_v1mp_ALWAYS-ON_dis_rtg-1_ENERO_24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/SANDOS/2024/1/html/rtg/es/esp/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.sandos.com/es/atrapa-el-calor?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=always-on&amp;utm_content=970x250&amp;tc_alt=120940" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_sandos-es_np_120940.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>https://www.tumundo.cl/planes-movil/portabilidad-gl-200/</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_160x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120408" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120408.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_300x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120410" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120410.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_300x100</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120411" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/300x100.jpg" width="300" height="100"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120411.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_728x90</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120412" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120412.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_970x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120413" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120413.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -445,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -516,19 +543,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -536,19 +563,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -556,19 +583,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -576,59 +603,119 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -649,6 +736,12 @@
     <hyperlink ref="C8" r:id="rId14"/>
     <hyperlink ref="A9" r:id="rId15"/>
     <hyperlink ref="C9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="C12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="132">
   <si>
     <t>URL</t>
   </si>
@@ -34,52 +34,46 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://www.tumundo.cl/planes-movil/portabilidad-10/</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_160x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120402" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120402.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>160</t>
+    <t>https://www.fundacionvicenteferrer.org/es/</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124241" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124241.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124242" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124242.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>600</t>
   </si>
   <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120403" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x250.jpg" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120403.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120404" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120404.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_300x100</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120405" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/300x100.jpg" width="300" height="100"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120405.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124243" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124243.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>320</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_728x90</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120406" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120406.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124244" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124244.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>728</t>
@@ -88,46 +82,334 @@
     <t>90</t>
   </si>
   <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_4990_970x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-10/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=4990&amp;tc_alt=120407" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/4990/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120407.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_980x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124245" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124245.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_8M_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124246" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124246.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>https://www.tumundo.cl/planes-movil/portabilidad-gl-200/</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_160x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120408" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120408.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120410" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120410.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_300x100</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120411" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/300x100.jpg" width="300" height="100"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120411.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_728x90</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120412" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120412.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mundo-cl_v1mp_MOVIL-GENERICA_dis_rtg-1_6995_970x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.tumundo.cl/planes-movil/portabilidad-gl-200/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=movil-generica&amp;utm_term=6995&amp;tc_alt=120413" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/mundo_pacifico/2024/01/6995/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_mundo-cl_np_120413.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124247" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124247.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124248" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124248.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124249" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124249.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124250" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124250.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_980x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124251" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124251.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_8M_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=8M300x250&amp;tc_alt=124252" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124252.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x250&amp;tc_alt=124253" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124253.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x600&amp;tc_alt=124254" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124254.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka320x100&amp;tc_alt=124255" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124255.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka728x90&amp;tc_alt=124256" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124256.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_990x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka990x90&amp;tc_alt=124257" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124257.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_prs-1_RENUKA_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka970x250&amp;tc_alt=124258" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124258.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x250&amp;tc_alt=124259" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124259.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka300x600&amp;tc_alt=124260" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124260.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka320x100&amp;tc_alt=124261" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124261.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka728x90&amp;tc_alt=124262" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124262.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_990x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka990x90&amp;tc_alt=124263" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124263.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis_rtg-1_RENUKA_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=Renuka970x250&amp;tc_alt=124264" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124264.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_ADSTORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/adstory/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=adstory300x600&amp;tc_alt=124265" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124265.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_CARROUSEL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/carousel/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=carrousel300x600&amp;tc_alt=124266" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124266.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_SLIDER_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/slider/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=slider300x600&amp;tc_alt=124267" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124267.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-SOCIO_dis-prem_prs-1_FICHA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/ficha/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-socio&amp;utm_content=ficha300x600&amp;tc_alt=124268" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124268.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124269" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124269.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124270" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124270.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124271" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124271.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124272" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124272.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_980x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124273" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124273.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_8M_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124274" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124274.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124275" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124275.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124276" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124276.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124277" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124277.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124278" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124278.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_980x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/980x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124279" width="980" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124279.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_8M_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/8m/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.fundacionvicenteferrer.org/es/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=8M300x250&amp;tc_alt=124280" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124280.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x250&amp;tc_alt=124281" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124281.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x600&amp;tc_alt=124282" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124282.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka320x100&amp;tc_alt=124283" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124283.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka728x90&amp;tc_alt=124284" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124284.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_990x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka990x90&amp;tc_alt=124285" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124285.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_prs-1_RENUKA_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka970x250&amp;tc_alt=124286" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124286.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x250&amp;tc_alt=124287" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124287.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka300x600&amp;tc_alt=124288" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124288.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka320x100&amp;tc_alt=124289" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124289.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka728x90&amp;tc_alt=124290" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124290.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_990x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/990x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka990x90&amp;tc_alt=124291" width="990" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124291.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis_rtg-1_RENUKA_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/display/renuka/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=Renuka970x250&amp;tc_alt=124292" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124292.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_ADSTORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/premium/adstory/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=adstory300x600&amp;tc_alt=124293" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124293.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_CARROUSEL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/03/premium/carousel/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=carrousel300x600&amp;tc_alt=124294" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124294.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_SLIDER_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/slider/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=slider300x600&amp;tc_alt=124295" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124295.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES-DONA_dis-prem_prs-1_FICHA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/premium/ficha/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes-dona&amp;utm_content=ficha300x600&amp;tc_alt=124296" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124296.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>v-f-es_v1mp_8M-DEBERES_dis-p20_prs-1_8M-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/VICENTE_FERRER/2024/02/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://actua.fundacionvicenteferrer.org/elcuidadoquenecesitan/?c=G00212900C01&amp;o=DS&amp;f=DS&amp;utm_source=display&amp;utm_medium=cpm&amp;utm_campaign=8m-deberes&amp;utm_content=8M-24970x250&amp;tc_alt=124297" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_vicente-ferrer-es_np_124297.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -472,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +814,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -543,19 +825,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -563,19 +845,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -583,19 +865,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -603,30 +885,30 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -640,82 +922,1002 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
       </c>
       <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -742,6 +1944,98 @@
     <hyperlink ref="C11" r:id="rId20"/>
     <hyperlink ref="A12" r:id="rId21"/>
     <hyperlink ref="C12" r:id="rId22"/>
+    <hyperlink ref="A13" r:id="rId23"/>
+    <hyperlink ref="C13" r:id="rId24"/>
+    <hyperlink ref="A14" r:id="rId25"/>
+    <hyperlink ref="C14" r:id="rId26"/>
+    <hyperlink ref="A15" r:id="rId27"/>
+    <hyperlink ref="C15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="C16" r:id="rId30"/>
+    <hyperlink ref="A17" r:id="rId31"/>
+    <hyperlink ref="C17" r:id="rId32"/>
+    <hyperlink ref="A18" r:id="rId33"/>
+    <hyperlink ref="C18" r:id="rId34"/>
+    <hyperlink ref="A19" r:id="rId35"/>
+    <hyperlink ref="C19" r:id="rId36"/>
+    <hyperlink ref="A20" r:id="rId37"/>
+    <hyperlink ref="C20" r:id="rId38"/>
+    <hyperlink ref="A21" r:id="rId39"/>
+    <hyperlink ref="C21" r:id="rId40"/>
+    <hyperlink ref="A22" r:id="rId41"/>
+    <hyperlink ref="C22" r:id="rId42"/>
+    <hyperlink ref="A23" r:id="rId43"/>
+    <hyperlink ref="C23" r:id="rId44"/>
+    <hyperlink ref="A24" r:id="rId45"/>
+    <hyperlink ref="C24" r:id="rId46"/>
+    <hyperlink ref="A25" r:id="rId47"/>
+    <hyperlink ref="C25" r:id="rId48"/>
+    <hyperlink ref="A26" r:id="rId49"/>
+    <hyperlink ref="C26" r:id="rId50"/>
+    <hyperlink ref="A27" r:id="rId51"/>
+    <hyperlink ref="C27" r:id="rId52"/>
+    <hyperlink ref="A28" r:id="rId53"/>
+    <hyperlink ref="C28" r:id="rId54"/>
+    <hyperlink ref="A29" r:id="rId55"/>
+    <hyperlink ref="C29" r:id="rId56"/>
+    <hyperlink ref="A30" r:id="rId57"/>
+    <hyperlink ref="C30" r:id="rId58"/>
+    <hyperlink ref="A31" r:id="rId59"/>
+    <hyperlink ref="C31" r:id="rId60"/>
+    <hyperlink ref="A32" r:id="rId61"/>
+    <hyperlink ref="C32" r:id="rId62"/>
+    <hyperlink ref="A33" r:id="rId63"/>
+    <hyperlink ref="C33" r:id="rId64"/>
+    <hyperlink ref="A34" r:id="rId65"/>
+    <hyperlink ref="C34" r:id="rId66"/>
+    <hyperlink ref="A35" r:id="rId67"/>
+    <hyperlink ref="C35" r:id="rId68"/>
+    <hyperlink ref="A36" r:id="rId69"/>
+    <hyperlink ref="C36" r:id="rId70"/>
+    <hyperlink ref="A37" r:id="rId71"/>
+    <hyperlink ref="C37" r:id="rId72"/>
+    <hyperlink ref="A38" r:id="rId73"/>
+    <hyperlink ref="C38" r:id="rId74"/>
+    <hyperlink ref="A39" r:id="rId75"/>
+    <hyperlink ref="C39" r:id="rId76"/>
+    <hyperlink ref="A40" r:id="rId77"/>
+    <hyperlink ref="C40" r:id="rId78"/>
+    <hyperlink ref="A41" r:id="rId79"/>
+    <hyperlink ref="C41" r:id="rId80"/>
+    <hyperlink ref="A42" r:id="rId81"/>
+    <hyperlink ref="C42" r:id="rId82"/>
+    <hyperlink ref="A43" r:id="rId83"/>
+    <hyperlink ref="C43" r:id="rId84"/>
+    <hyperlink ref="A44" r:id="rId85"/>
+    <hyperlink ref="C44" r:id="rId86"/>
+    <hyperlink ref="A45" r:id="rId87"/>
+    <hyperlink ref="C45" r:id="rId88"/>
+    <hyperlink ref="A46" r:id="rId89"/>
+    <hyperlink ref="C46" r:id="rId90"/>
+    <hyperlink ref="A47" r:id="rId91"/>
+    <hyperlink ref="C47" r:id="rId92"/>
+    <hyperlink ref="A48" r:id="rId93"/>
+    <hyperlink ref="C48" r:id="rId94"/>
+    <hyperlink ref="A49" r:id="rId95"/>
+    <hyperlink ref="C49" r:id="rId96"/>
+    <hyperlink ref="A50" r:id="rId97"/>
+    <hyperlink ref="C50" r:id="rId98"/>
+    <hyperlink ref="A51" r:id="rId99"/>
+    <hyperlink ref="C51" r:id="rId100"/>
+    <hyperlink ref="A52" r:id="rId101"/>
+    <hyperlink ref="C52" r:id="rId102"/>
+    <hyperlink ref="A53" r:id="rId103"/>
+    <hyperlink ref="C53" r:id="rId104"/>
+    <hyperlink ref="A54" r:id="rId105"/>
+    <hyperlink ref="C54" r:id="rId106"/>
+    <hyperlink ref="A55" r:id="rId107"/>
+    <hyperlink ref="C55" r:id="rId108"/>
+    <hyperlink ref="A56" r:id="rId109"/>
+    <hyperlink ref="C56" r:id="rId110"/>
+    <hyperlink ref="A57" r:id="rId111"/>
+    <hyperlink ref="C57" r:id="rId112"/>
+    <hyperlink ref="A58" r:id="rId113"/>
+    <hyperlink ref="C58" r:id="rId114"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>URL</t>
   </si>
@@ -34,13 +34,13 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_970x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/970x250.gif" width="970" height="250"/&gt;&lt;/a&gt;</t>
+    <t>https://www.petitceller.com/es/vino/oriol-rossell</t>
+  </si>
+  <si>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=970x250&amp;tc_alt=129340" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129340.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>970</t>
@@ -49,94 +49,55 @@
     <t>250</t>
   </si>
   <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_728x90</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;</t>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=300x600&amp;tc_alt=129341" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129341.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=300x250&amp;tc_alt=129342" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/300x250.jpg" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129342.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=160x600&amp;tc_alt=129343" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129343.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_320x50</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=320x50&amp;tc_alt=129344" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/320x50.jpg" width="320" height="50"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129344.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=728x90&amp;tc_alt=129345" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129345.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>728</t>
   </si>
   <si>
     <t>90</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_320x50</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/320x50.gif" width="320" height="50"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_300x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_prs-1_GENERICO_160x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=prospect" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_970x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/970x250.gif" width="970" height="250"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_728x90</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/728x90.gif" width="728" height="90"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_320x50</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/320x50.gif" width="320" height="50"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x600.gif" width="300" height="600"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_300x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/300x250.gif" width="300" height="250"/&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>olea-es_adg_ABRIL24_dis_rtg-1_GENERICO_160x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://oleagestion.com/?utm_source=afic&amp;utm_medium=display&amp;utm_campaign=retargeting" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/OLEA/2024/04/generico/160x600.gif" width="160" height="600"/&gt;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -481,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,10 +522,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -572,19 +533,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -592,19 +553,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -612,139 +573,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -761,18 +602,6 @@
     <hyperlink ref="C6" r:id="rId10"/>
     <hyperlink ref="A7" r:id="rId11"/>
     <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="A8" r:id="rId13"/>
-    <hyperlink ref="C8" r:id="rId14"/>
-    <hyperlink ref="A9" r:id="rId15"/>
-    <hyperlink ref="C9" r:id="rId16"/>
-    <hyperlink ref="A10" r:id="rId17"/>
-    <hyperlink ref="C10" r:id="rId18"/>
-    <hyperlink ref="A11" r:id="rId19"/>
-    <hyperlink ref="C11" r:id="rId20"/>
-    <hyperlink ref="A12" r:id="rId21"/>
-    <hyperlink ref="C12" r:id="rId22"/>
-    <hyperlink ref="A13" r:id="rId23"/>
-    <hyperlink ref="C13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>URL</t>
   </si>
@@ -34,13 +34,25 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://www.petitceller.com/es/vino/oriol-rossell</t>
-  </si>
-  <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_970x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=970x250&amp;tc_alt=129340" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/970x250.jpg" width="970" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129340.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>https://www.educo.org/landing/becascomedor</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V1_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/1/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129474" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129474.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V1_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/1/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129484" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129484.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>970</t>
@@ -49,55 +61,64 @@
     <t>250</t>
   </si>
   <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_300x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=300x600&amp;tc_alt=129341" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/300x600.jpg" width="300" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129341.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_300x250</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=300x250&amp;tc_alt=129342" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/300x250.jpg" width="300" height="250"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129342.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_160x600</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=160x600&amp;tc_alt=129343" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/160x600.jpg" width="160" height="600"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129343.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_320x50</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=320x50&amp;tc_alt=129344" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/320x50.jpg" width="320" height="50"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129344.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>petit-celler-es_imp_ALWAYS-ON_dis_prs-1_ORIOL_728x90</t>
-  </si>
-  <si>
-    <t>&lt;a href="{CLICK_URL}https://www.petitceller.com/es/vino/oriol-rossell?utm_source=programatica&amp;utm_medium=display&amp;utm_campaign=always-on&amp;utm_term=ORIOL&amp;utm_content=728x90&amp;tc_alt=129345" target="_blank"&gt;&lt;img src="https://ppj05.cdnwebcloud.com/PETIT_CELLER/2024/04/oriol/728x90.jpg" width="728" height="90"/&gt;&lt;/a&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_excelsia-es_np_129345.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>90</t>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V1_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/1/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129479" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129479.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V1_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/1/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129489" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129489.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V2_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/2/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129494" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129494.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V2_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/2/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129504" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129504.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V2_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/2/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129499" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129499.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V2_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/2/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129509" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129509.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V3_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/3/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129514" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129514.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V3_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/3/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129524" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129524.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V3_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/3/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129519" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129519.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V3_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/3/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129529" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129529.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -442,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +543,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -542,7 +563,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -553,19 +574,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -573,19 +594,139 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -602,6 +743,18 @@
     <hyperlink ref="C6" r:id="rId10"/>
     <hyperlink ref="A7" r:id="rId11"/>
     <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="C9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="C12" r:id="rId22"/>
+    <hyperlink ref="A13" r:id="rId23"/>
+    <hyperlink ref="C13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>URL</t>
   </si>
@@ -34,91 +34,31 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://www.educo.org/landing/becascomedor</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V1_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/1/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129474" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129474.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>https://karmafilms.es/maria-montessori/</t>
+  </si>
+  <si>
+    <t>srgorsky-es_adg_MARIA-MONTESORI_dis-p20_prs-1_GEN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/sr_gorsky/2024/04/maria_montessori/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://karmafilms.es/maria-montessori/?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=maria-montesori&amp;tc_alt=129919" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_adg-sr-gorsky_np_129919.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>srgorsky-es_adg_MARIA-MONTESORI_dis-p20_prs-1_GEN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/sr_gorsky/2024/04/maria_montessori/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://karmafilms.es/maria-montessori/?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=maria-montesori&amp;tc_alt=129924" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_adg-sr-gorsky_np_129924.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
     <t>600</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V1_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/1/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129484" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129484.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V1_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/1/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129479" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129479.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V1_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/1/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129489" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129489.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V2_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/2/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129494" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129494.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V2_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/2/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129504" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129504.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V2_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/2/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129499" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129499.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V2_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/2/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129509" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129509.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V3_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/3/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129514" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129514.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_prs-1_ABRIL-V3_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_prs/3/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129524" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129524.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V3_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/3/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129519" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129519.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>educo-es_adg_BECAS-COMEDOR_dis-p20_rtg-1_ABRIL-V3_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/EDUCO/2024/04/preroll_3_rtg/3/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.educo.org/landing/becascomedor?utm_source=adg&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=becas-comedor&amp;tc_alt=129529" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_educo-es_np_129529.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -463,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,232 +469,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-    <hyperlink ref="C5" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="A7" r:id="rId11"/>
-    <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="A8" r:id="rId13"/>
-    <hyperlink ref="C8" r:id="rId14"/>
-    <hyperlink ref="A9" r:id="rId15"/>
-    <hyperlink ref="C9" r:id="rId16"/>
-    <hyperlink ref="A10" r:id="rId17"/>
-    <hyperlink ref="C10" r:id="rId18"/>
-    <hyperlink ref="A11" r:id="rId19"/>
-    <hyperlink ref="C11" r:id="rId20"/>
-    <hyperlink ref="A12" r:id="rId21"/>
-    <hyperlink ref="C12" r:id="rId22"/>
-    <hyperlink ref="A13" r:id="rId23"/>
-    <hyperlink ref="C13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>URL</t>
   </si>
@@ -34,31 +34,37 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://karmafilms.es/maria-montessori/</t>
-  </si>
-  <si>
-    <t>srgorsky-es_adg_MARIA-MONTESORI_dis-p20_prs-1_GEN_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/sr_gorsky/2024/04/maria_montessori/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://karmafilms.es/maria-montessori/?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=maria-montesori&amp;tc_alt=129919" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_adg-sr-gorsky_np_129919.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>srgorsky-es_adg_MARIA-MONTESORI_dis-p20_prs-1_GEN_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/sr_gorsky/2024/04/maria_montessori/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://karmafilms.es/maria-montessori/?utm_source=adg&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=maria-montesori&amp;tc_alt=129924" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_adg-sr-gorsky_np_129924.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>https://www.besthotels.es/en/destinations-and-hotels/tourist-apartments-best-pueblo-indalo.html</t>
+  </si>
+  <si>
+    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-PUEBLO_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/indalo/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://www.besthotels.es/en/destinations-and-hotels/tourist-apartments-best-pueblo-indalo.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130186" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130186.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
     <t>600</t>
+  </si>
+  <si>
+    <t>https://www.besthotels.es/en/destinations-and-hotels/best-costa-ballena.html</t>
+  </si>
+  <si>
+    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-BALLENA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/costaballena/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://www.besthotels.es/en/destinations-and-hotels/best-costa-ballena.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130191" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130191.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://www.besthotels.es/en/destinations-and-hotels/best-sabinal.html</t>
+  </si>
+  <si>
+    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-SABINAL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/sabinal/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://www.besthotels.es/en/destinations-and-hotels/best-sabinal.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130196" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130196.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,22 +457,42 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -475,6 +501,8 @@
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="361">
   <si>
     <t>URL</t>
   </si>
@@ -34,13 +34,13 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://www.besthotels.es/en/destinations-and-hotels/tourist-apartments-best-pueblo-indalo.html</t>
-  </si>
-  <si>
-    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-PUEBLO_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/indalo/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://www.besthotels.es/en/destinations-and-hotels/tourist-apartments-best-pueblo-indalo.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130186" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130186.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/zoetry/adstory/eu/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130203" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130203.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>300</t>
@@ -49,22 +49,1054 @@
     <t>600</t>
   </si>
   <si>
-    <t>https://www.besthotels.es/en/destinations-and-hotels/best-costa-ballena.html</t>
-  </si>
-  <si>
-    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-BALLENA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/costaballena/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://www.besthotels.es/en/destinations-and-hotels/best-costa-ballena.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130191" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130191.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>https://www.besthotels.es/en/destinations-and-hotels/best-sabinal.html</t>
-  </si>
-  <si>
-    <t>best-pt_v1mp_AO_PT_dis-prem_rtg-1_PRERROLL-SABINAL_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/04/ao-pt/preroll2.0_rtg/sabinal/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://www.besthotels.es/en/destinations-and-hotels/best-sabinal.html?utm_source=v1mp&amp;utm_medium=dis-prem-rtg-1&amp;utm_campaign=ao_pt&amp;tc_alt=130196" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_best-hotels-es_np_130196.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/alua/adstory/eu/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130205" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130205.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/dreams/adstory/eu/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130207" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130207.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/secrets/adstory/eu/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130209" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130209.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/zoetry/adstory/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130211" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130211.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/alua/adstory/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130213" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130213.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/dreams/adstory/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130215" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130215.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/secrets/adstory/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130217" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130217.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/zoetry/adstory/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130219" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130219.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/alua/adstory/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130221" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130221.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/dreams/adstory/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130223" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130223.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/secrets/adstory/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130225" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130225.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/zoetry/adstory/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130227" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130227.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/alua/adstory/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130229" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130229.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/dreams/adstory/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130231" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130231.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/secrets/adstory/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130233" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130233.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/alua/adstory/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130235" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130235.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/dreams/adstory/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130237" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130237.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_STORY_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium_prs/secrets/adstory/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Story&amp;utm_content=300x600&amp;tc_alt=130239" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130239.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/en/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130240" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130240.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/en/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130241" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130241.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/en/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130242" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130242.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/en/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130243" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130243.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/en/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130244" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130244.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/en/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130245" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130245.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/en/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130246" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130246.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/en/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130247" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130247.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/es/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130248" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130248.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/es/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130249" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130249.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/es/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130250" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130250.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/es/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130251" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130251.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/es/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130252" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130252.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/es/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130253" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130253.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/es/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130254" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130254.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/es/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130255" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130255.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/en/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130256" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130256.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/en/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130257" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130257.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/en/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130258" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130258.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/en/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130259" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130259.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/en/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130260" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130260.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/en/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130261" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130261.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/en/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130262" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130262.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/en/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130263" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130263.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/de/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130264" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130264.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/zoetry/countdown/de/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130265" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130265.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/de/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130266" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130266.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/de/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130267" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130267.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/de/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130268" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130268.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/de/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130269" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130269.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/de/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130270" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130270.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/de/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130271" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130271.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/fr/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130272" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130272.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/alua/countdown/fr/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130273" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130273.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/fr/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130274" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130274.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/dreams/countdown/fr/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130275" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130275.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/fr/970x250.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=970x250&amp;tc_alt=130276" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130276.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_COUNTDOWN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/premium/secrets/countdown/fr/300x600.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril_Countdown&amp;utm_content=300x600&amp;tc_alt=130277" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130277.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130278" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130278.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130279" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130279.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130280" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130280.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130281" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130281.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130282" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130282.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130283" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130283.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130284" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130284.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130285" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130285.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130286" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130286.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130287" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130287.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130288" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130288.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130289" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130289.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130290" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130290.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130291" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130291.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130292" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130292.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130293" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130293.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130294" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130294.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130295" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130295.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130296" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130296.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130297" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130297.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130298" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130298.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130299" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130299.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130300" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130300.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130301" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130301.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130302" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130302.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130303" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130303.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130304" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130304.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130305" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130305.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130306" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130306.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130307" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130307.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130308" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130308.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130309" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130309.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130310" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130310.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130311" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130311.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130312" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130312.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130313" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130313.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130314" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130314.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130315" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130315.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130316" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130316.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130317" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130317.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130318" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130318.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130319" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130319.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130320" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130320.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130321" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130321.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130322" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130322.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130323" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130323.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130324" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130324.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130325" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130325.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130326" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130326.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130327" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130327.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130328" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130328.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130329" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130329.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130330" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130330.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130331" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130331.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130332" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130332.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130333" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130333.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130334" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130334.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130335" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130335.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130336" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130336.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130337" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130337.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130338" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130338.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130339" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130339.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130340" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130340.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130341" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130341.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130342" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130342.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130343" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130343.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130344" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130344.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130345" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130345.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130346" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130346.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130347" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130347.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130348" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130348.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130349" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130349.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130350" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130350.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130351" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130351.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130352" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130352.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130353" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130353.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130354" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130354.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/zoetry/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130355" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130355.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130356" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130356.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130357" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130357.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130358" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130358.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130359" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130359.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130360" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130360.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130361" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130361.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130362" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130362.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130363" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130363.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130364" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130364.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130365" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130365.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130366" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130366.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130367" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130367.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130368" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130368.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130369" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130369.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130370" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130370.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130371" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130371.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130372" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130372.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130373" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130373.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130374" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130374.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130375" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130375.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130376" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130376.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130377" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130377.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130378" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130378.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/alua/fr/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130379" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130379.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130380" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130380.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130381" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130381.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130382" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130382.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130383" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130383.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130384" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130384.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/dreams/fr/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130385" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130385.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=970x250&amp;tc_alt=130386" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130386.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x600&amp;tc_alt=130387" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130387.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=160x600&amp;tc_alt=130388" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130388.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=300x250&amp;tc_alt=130389" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130389.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=320x100&amp;tc_alt=130390" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130390.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_WAW_ABRIL_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/04/waw/html/secrets/fr/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/what-a-weekend?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=WAW_Abril&amp;utm_content=728x90&amp;tc_alt=130391" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_amr-collection-es_np_130391.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -409,7 +1441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,16 +1489,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -477,22 +1509,3382 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>172</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>184</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" t="s">
+        <v>134</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>192</v>
+      </c>
+      <c r="E88" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>194</v>
+      </c>
+      <c r="E89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>196</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" t="s">
+        <v>134</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>200</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>202</v>
+      </c>
+      <c r="E93" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" t="s">
+        <v>143</v>
+      </c>
+      <c r="F94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" t="s">
+        <v>52</v>
+      </c>
+      <c r="F95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>210</v>
+      </c>
+      <c r="E97" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>212</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>214</v>
+      </c>
+      <c r="E99" t="s">
+        <v>139</v>
+      </c>
+      <c r="F99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" t="s">
+        <v>52</v>
+      </c>
+      <c r="F101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>220</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>222</v>
+      </c>
+      <c r="E103" t="s">
+        <v>134</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>224</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>226</v>
+      </c>
+      <c r="E105" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>228</v>
+      </c>
+      <c r="E106" t="s">
+        <v>143</v>
+      </c>
+      <c r="F106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>230</v>
+      </c>
+      <c r="E107" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>234</v>
+      </c>
+      <c r="E109" t="s">
+        <v>134</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>236</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>238</v>
+      </c>
+      <c r="E111" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>240</v>
+      </c>
+      <c r="E112" t="s">
+        <v>143</v>
+      </c>
+      <c r="F112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>242</v>
+      </c>
+      <c r="E113" t="s">
+        <v>52</v>
+      </c>
+      <c r="F113" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>244</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>246</v>
+      </c>
+      <c r="E115" t="s">
+        <v>134</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>248</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>250</v>
+      </c>
+      <c r="E117" t="s">
+        <v>139</v>
+      </c>
+      <c r="F117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>252</v>
+      </c>
+      <c r="E118" t="s">
+        <v>143</v>
+      </c>
+      <c r="F118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>254</v>
+      </c>
+      <c r="E119" t="s">
+        <v>52</v>
+      </c>
+      <c r="F119" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>256</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>257</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>258</v>
+      </c>
+      <c r="E121" t="s">
+        <v>134</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>259</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>260</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>261</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>262</v>
+      </c>
+      <c r="E123" t="s">
+        <v>139</v>
+      </c>
+      <c r="F123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>264</v>
+      </c>
+      <c r="E124" t="s">
+        <v>143</v>
+      </c>
+      <c r="F124" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>265</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>266</v>
+      </c>
+      <c r="E125" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>268</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>269</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>270</v>
+      </c>
+      <c r="E127" t="s">
+        <v>134</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>271</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>272</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>274</v>
+      </c>
+      <c r="E129" t="s">
+        <v>139</v>
+      </c>
+      <c r="F129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>276</v>
+      </c>
+      <c r="E130" t="s">
+        <v>143</v>
+      </c>
+      <c r="F130" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B131" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" t="s">
+        <v>278</v>
+      </c>
+      <c r="E131" t="s">
+        <v>52</v>
+      </c>
+      <c r="F131" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" t="s">
+        <v>279</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" t="s">
+        <v>280</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B133" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" t="s">
+        <v>282</v>
+      </c>
+      <c r="E133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B134" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" t="s">
+        <v>284</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B135" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" t="s">
+        <v>286</v>
+      </c>
+      <c r="E135" t="s">
+        <v>139</v>
+      </c>
+      <c r="F135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" t="s">
+        <v>288</v>
+      </c>
+      <c r="E136" t="s">
+        <v>143</v>
+      </c>
+      <c r="F136" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" t="s">
+        <v>289</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" t="s">
+        <v>290</v>
+      </c>
+      <c r="E137" t="s">
+        <v>52</v>
+      </c>
+      <c r="F137" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B138" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" t="s">
+        <v>292</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B139" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" t="s">
+        <v>294</v>
+      </c>
+      <c r="E139" t="s">
+        <v>134</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" t="s">
+        <v>296</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" t="s">
+        <v>298</v>
+      </c>
+      <c r="E141" t="s">
+        <v>139</v>
+      </c>
+      <c r="F141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" t="s">
+        <v>299</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" t="s">
+        <v>300</v>
+      </c>
+      <c r="E142" t="s">
+        <v>143</v>
+      </c>
+      <c r="F142" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" t="s">
+        <v>301</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" t="s">
+        <v>302</v>
+      </c>
+      <c r="E143" t="s">
+        <v>52</v>
+      </c>
+      <c r="F143" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B144" t="s">
+        <v>303</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" t="s">
+        <v>304</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B145" t="s">
+        <v>305</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" t="s">
+        <v>306</v>
+      </c>
+      <c r="E145" t="s">
+        <v>134</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" t="s">
+        <v>307</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" t="s">
+        <v>308</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B147" t="s">
+        <v>309</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" t="s">
+        <v>310</v>
+      </c>
+      <c r="E147" t="s">
+        <v>139</v>
+      </c>
+      <c r="F147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" t="s">
+        <v>312</v>
+      </c>
+      <c r="E148" t="s">
+        <v>143</v>
+      </c>
+      <c r="F148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B149" t="s">
+        <v>313</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" t="s">
+        <v>314</v>
+      </c>
+      <c r="E149" t="s">
+        <v>52</v>
+      </c>
+      <c r="F149" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B150" t="s">
+        <v>315</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" t="s">
+        <v>316</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B151" t="s">
+        <v>317</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" t="s">
+        <v>318</v>
+      </c>
+      <c r="E151" t="s">
+        <v>134</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" t="s">
+        <v>319</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" t="s">
+        <v>320</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B153" t="s">
+        <v>321</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" t="s">
+        <v>322</v>
+      </c>
+      <c r="E153" t="s">
+        <v>139</v>
+      </c>
+      <c r="F153" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B154" t="s">
+        <v>323</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" t="s">
+        <v>324</v>
+      </c>
+      <c r="E154" t="s">
+        <v>143</v>
+      </c>
+      <c r="F154" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" t="s">
+        <v>325</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D155" t="s">
+        <v>326</v>
+      </c>
+      <c r="E155" t="s">
+        <v>52</v>
+      </c>
+      <c r="F155" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B156" t="s">
+        <v>327</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D156" t="s">
+        <v>328</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" t="s">
+        <v>329</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" t="s">
+        <v>330</v>
+      </c>
+      <c r="E157" t="s">
+        <v>134</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B158" t="s">
+        <v>331</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" t="s">
+        <v>332</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B159" t="s">
+        <v>333</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" t="s">
+        <v>334</v>
+      </c>
+      <c r="E159" t="s">
+        <v>139</v>
+      </c>
+      <c r="F159" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B160" t="s">
+        <v>335</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" t="s">
+        <v>336</v>
+      </c>
+      <c r="E160" t="s">
+        <v>143</v>
+      </c>
+      <c r="F160" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B161" t="s">
+        <v>337</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161" t="s">
+        <v>338</v>
+      </c>
+      <c r="E161" t="s">
+        <v>52</v>
+      </c>
+      <c r="F161" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B162" t="s">
+        <v>339</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" t="s">
+        <v>340</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B163" t="s">
+        <v>341</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D163" t="s">
+        <v>342</v>
+      </c>
+      <c r="E163" t="s">
+        <v>134</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B164" t="s">
+        <v>343</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D164" t="s">
+        <v>344</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B165" t="s">
+        <v>345</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D165" t="s">
+        <v>346</v>
+      </c>
+      <c r="E165" t="s">
+        <v>139</v>
+      </c>
+      <c r="F165" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B166" t="s">
+        <v>347</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D166" t="s">
+        <v>348</v>
+      </c>
+      <c r="E166" t="s">
+        <v>143</v>
+      </c>
+      <c r="F166" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" t="s">
+        <v>349</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D167" t="s">
+        <v>350</v>
+      </c>
+      <c r="E167" t="s">
+        <v>52</v>
+      </c>
+      <c r="F167" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" t="s">
+        <v>351</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D168" t="s">
+        <v>352</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B169" t="s">
+        <v>353</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D169" t="s">
+        <v>354</v>
+      </c>
+      <c r="E169" t="s">
+        <v>134</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B170" t="s">
+        <v>355</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D170" t="s">
+        <v>356</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B171" t="s">
+        <v>357</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D171" t="s">
+        <v>358</v>
+      </c>
+      <c r="E171" t="s">
+        <v>139</v>
+      </c>
+      <c r="F171" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B172" t="s">
+        <v>359</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D172" t="s">
+        <v>360</v>
+      </c>
+      <c r="E172" t="s">
+        <v>143</v>
+      </c>
+      <c r="F172" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -503,6 +4895,342 @@
     <hyperlink ref="C3" r:id="rId4"/>
     <hyperlink ref="A4" r:id="rId5"/>
     <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="C9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="C12" r:id="rId22"/>
+    <hyperlink ref="A13" r:id="rId23"/>
+    <hyperlink ref="C13" r:id="rId24"/>
+    <hyperlink ref="A14" r:id="rId25"/>
+    <hyperlink ref="C14" r:id="rId26"/>
+    <hyperlink ref="A15" r:id="rId27"/>
+    <hyperlink ref="C15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="C16" r:id="rId30"/>
+    <hyperlink ref="A17" r:id="rId31"/>
+    <hyperlink ref="C17" r:id="rId32"/>
+    <hyperlink ref="A18" r:id="rId33"/>
+    <hyperlink ref="C18" r:id="rId34"/>
+    <hyperlink ref="A19" r:id="rId35"/>
+    <hyperlink ref="C19" r:id="rId36"/>
+    <hyperlink ref="A20" r:id="rId37"/>
+    <hyperlink ref="C20" r:id="rId38"/>
+    <hyperlink ref="A21" r:id="rId39"/>
+    <hyperlink ref="C21" r:id="rId40"/>
+    <hyperlink ref="A22" r:id="rId41"/>
+    <hyperlink ref="C22" r:id="rId42"/>
+    <hyperlink ref="A23" r:id="rId43"/>
+    <hyperlink ref="C23" r:id="rId44"/>
+    <hyperlink ref="A24" r:id="rId45"/>
+    <hyperlink ref="C24" r:id="rId46"/>
+    <hyperlink ref="A25" r:id="rId47"/>
+    <hyperlink ref="C25" r:id="rId48"/>
+    <hyperlink ref="A26" r:id="rId49"/>
+    <hyperlink ref="C26" r:id="rId50"/>
+    <hyperlink ref="A27" r:id="rId51"/>
+    <hyperlink ref="C27" r:id="rId52"/>
+    <hyperlink ref="A28" r:id="rId53"/>
+    <hyperlink ref="C28" r:id="rId54"/>
+    <hyperlink ref="A29" r:id="rId55"/>
+    <hyperlink ref="C29" r:id="rId56"/>
+    <hyperlink ref="A30" r:id="rId57"/>
+    <hyperlink ref="C30" r:id="rId58"/>
+    <hyperlink ref="A31" r:id="rId59"/>
+    <hyperlink ref="C31" r:id="rId60"/>
+    <hyperlink ref="A32" r:id="rId61"/>
+    <hyperlink ref="C32" r:id="rId62"/>
+    <hyperlink ref="A33" r:id="rId63"/>
+    <hyperlink ref="C33" r:id="rId64"/>
+    <hyperlink ref="A34" r:id="rId65"/>
+    <hyperlink ref="C34" r:id="rId66"/>
+    <hyperlink ref="A35" r:id="rId67"/>
+    <hyperlink ref="C35" r:id="rId68"/>
+    <hyperlink ref="A36" r:id="rId69"/>
+    <hyperlink ref="C36" r:id="rId70"/>
+    <hyperlink ref="A37" r:id="rId71"/>
+    <hyperlink ref="C37" r:id="rId72"/>
+    <hyperlink ref="A38" r:id="rId73"/>
+    <hyperlink ref="C38" r:id="rId74"/>
+    <hyperlink ref="A39" r:id="rId75"/>
+    <hyperlink ref="C39" r:id="rId76"/>
+    <hyperlink ref="A40" r:id="rId77"/>
+    <hyperlink ref="C40" r:id="rId78"/>
+    <hyperlink ref="A41" r:id="rId79"/>
+    <hyperlink ref="C41" r:id="rId80"/>
+    <hyperlink ref="A42" r:id="rId81"/>
+    <hyperlink ref="C42" r:id="rId82"/>
+    <hyperlink ref="A43" r:id="rId83"/>
+    <hyperlink ref="C43" r:id="rId84"/>
+    <hyperlink ref="A44" r:id="rId85"/>
+    <hyperlink ref="C44" r:id="rId86"/>
+    <hyperlink ref="A45" r:id="rId87"/>
+    <hyperlink ref="C45" r:id="rId88"/>
+    <hyperlink ref="A46" r:id="rId89"/>
+    <hyperlink ref="C46" r:id="rId90"/>
+    <hyperlink ref="A47" r:id="rId91"/>
+    <hyperlink ref="C47" r:id="rId92"/>
+    <hyperlink ref="A48" r:id="rId93"/>
+    <hyperlink ref="C48" r:id="rId94"/>
+    <hyperlink ref="A49" r:id="rId95"/>
+    <hyperlink ref="C49" r:id="rId96"/>
+    <hyperlink ref="A50" r:id="rId97"/>
+    <hyperlink ref="C50" r:id="rId98"/>
+    <hyperlink ref="A51" r:id="rId99"/>
+    <hyperlink ref="C51" r:id="rId100"/>
+    <hyperlink ref="A52" r:id="rId101"/>
+    <hyperlink ref="C52" r:id="rId102"/>
+    <hyperlink ref="A53" r:id="rId103"/>
+    <hyperlink ref="C53" r:id="rId104"/>
+    <hyperlink ref="A54" r:id="rId105"/>
+    <hyperlink ref="C54" r:id="rId106"/>
+    <hyperlink ref="A55" r:id="rId107"/>
+    <hyperlink ref="C55" r:id="rId108"/>
+    <hyperlink ref="A56" r:id="rId109"/>
+    <hyperlink ref="C56" r:id="rId110"/>
+    <hyperlink ref="A57" r:id="rId111"/>
+    <hyperlink ref="C57" r:id="rId112"/>
+    <hyperlink ref="A58" r:id="rId113"/>
+    <hyperlink ref="C58" r:id="rId114"/>
+    <hyperlink ref="A59" r:id="rId115"/>
+    <hyperlink ref="C59" r:id="rId116"/>
+    <hyperlink ref="A60" r:id="rId117"/>
+    <hyperlink ref="C60" r:id="rId118"/>
+    <hyperlink ref="A61" r:id="rId119"/>
+    <hyperlink ref="C61" r:id="rId120"/>
+    <hyperlink ref="A62" r:id="rId121"/>
+    <hyperlink ref="C62" r:id="rId122"/>
+    <hyperlink ref="A63" r:id="rId123"/>
+    <hyperlink ref="C63" r:id="rId124"/>
+    <hyperlink ref="A64" r:id="rId125"/>
+    <hyperlink ref="C64" r:id="rId126"/>
+    <hyperlink ref="A65" r:id="rId127"/>
+    <hyperlink ref="C65" r:id="rId128"/>
+    <hyperlink ref="A66" r:id="rId129"/>
+    <hyperlink ref="C66" r:id="rId130"/>
+    <hyperlink ref="A67" r:id="rId131"/>
+    <hyperlink ref="C67" r:id="rId132"/>
+    <hyperlink ref="A68" r:id="rId133"/>
+    <hyperlink ref="C68" r:id="rId134"/>
+    <hyperlink ref="A69" r:id="rId135"/>
+    <hyperlink ref="C69" r:id="rId136"/>
+    <hyperlink ref="A70" r:id="rId137"/>
+    <hyperlink ref="C70" r:id="rId138"/>
+    <hyperlink ref="A71" r:id="rId139"/>
+    <hyperlink ref="C71" r:id="rId140"/>
+    <hyperlink ref="A72" r:id="rId141"/>
+    <hyperlink ref="C72" r:id="rId142"/>
+    <hyperlink ref="A73" r:id="rId143"/>
+    <hyperlink ref="C73" r:id="rId144"/>
+    <hyperlink ref="A74" r:id="rId145"/>
+    <hyperlink ref="C74" r:id="rId146"/>
+    <hyperlink ref="A75" r:id="rId147"/>
+    <hyperlink ref="C75" r:id="rId148"/>
+    <hyperlink ref="A76" r:id="rId149"/>
+    <hyperlink ref="C76" r:id="rId150"/>
+    <hyperlink ref="A77" r:id="rId151"/>
+    <hyperlink ref="C77" r:id="rId152"/>
+    <hyperlink ref="A78" r:id="rId153"/>
+    <hyperlink ref="C78" r:id="rId154"/>
+    <hyperlink ref="A79" r:id="rId155"/>
+    <hyperlink ref="C79" r:id="rId156"/>
+    <hyperlink ref="A80" r:id="rId157"/>
+    <hyperlink ref="C80" r:id="rId158"/>
+    <hyperlink ref="A81" r:id="rId159"/>
+    <hyperlink ref="C81" r:id="rId160"/>
+    <hyperlink ref="A82" r:id="rId161"/>
+    <hyperlink ref="C82" r:id="rId162"/>
+    <hyperlink ref="A83" r:id="rId163"/>
+    <hyperlink ref="C83" r:id="rId164"/>
+    <hyperlink ref="A84" r:id="rId165"/>
+    <hyperlink ref="C84" r:id="rId166"/>
+    <hyperlink ref="A85" r:id="rId167"/>
+    <hyperlink ref="C85" r:id="rId168"/>
+    <hyperlink ref="A86" r:id="rId169"/>
+    <hyperlink ref="C86" r:id="rId170"/>
+    <hyperlink ref="A87" r:id="rId171"/>
+    <hyperlink ref="C87" r:id="rId172"/>
+    <hyperlink ref="A88" r:id="rId173"/>
+    <hyperlink ref="C88" r:id="rId174"/>
+    <hyperlink ref="A89" r:id="rId175"/>
+    <hyperlink ref="C89" r:id="rId176"/>
+    <hyperlink ref="A90" r:id="rId177"/>
+    <hyperlink ref="C90" r:id="rId178"/>
+    <hyperlink ref="A91" r:id="rId179"/>
+    <hyperlink ref="C91" r:id="rId180"/>
+    <hyperlink ref="A92" r:id="rId181"/>
+    <hyperlink ref="C92" r:id="rId182"/>
+    <hyperlink ref="A93" r:id="rId183"/>
+    <hyperlink ref="C93" r:id="rId184"/>
+    <hyperlink ref="A94" r:id="rId185"/>
+    <hyperlink ref="C94" r:id="rId186"/>
+    <hyperlink ref="A95" r:id="rId187"/>
+    <hyperlink ref="C95" r:id="rId188"/>
+    <hyperlink ref="A96" r:id="rId189"/>
+    <hyperlink ref="C96" r:id="rId190"/>
+    <hyperlink ref="A97" r:id="rId191"/>
+    <hyperlink ref="C97" r:id="rId192"/>
+    <hyperlink ref="A98" r:id="rId193"/>
+    <hyperlink ref="C98" r:id="rId194"/>
+    <hyperlink ref="A99" r:id="rId195"/>
+    <hyperlink ref="C99" r:id="rId196"/>
+    <hyperlink ref="A100" r:id="rId197"/>
+    <hyperlink ref="C100" r:id="rId198"/>
+    <hyperlink ref="A101" r:id="rId199"/>
+    <hyperlink ref="C101" r:id="rId200"/>
+    <hyperlink ref="A102" r:id="rId201"/>
+    <hyperlink ref="C102" r:id="rId202"/>
+    <hyperlink ref="A103" r:id="rId203"/>
+    <hyperlink ref="C103" r:id="rId204"/>
+    <hyperlink ref="A104" r:id="rId205"/>
+    <hyperlink ref="C104" r:id="rId206"/>
+    <hyperlink ref="A105" r:id="rId207"/>
+    <hyperlink ref="C105" r:id="rId208"/>
+    <hyperlink ref="A106" r:id="rId209"/>
+    <hyperlink ref="C106" r:id="rId210"/>
+    <hyperlink ref="A107" r:id="rId211"/>
+    <hyperlink ref="C107" r:id="rId212"/>
+    <hyperlink ref="A108" r:id="rId213"/>
+    <hyperlink ref="C108" r:id="rId214"/>
+    <hyperlink ref="A109" r:id="rId215"/>
+    <hyperlink ref="C109" r:id="rId216"/>
+    <hyperlink ref="A110" r:id="rId217"/>
+    <hyperlink ref="C110" r:id="rId218"/>
+    <hyperlink ref="A111" r:id="rId219"/>
+    <hyperlink ref="C111" r:id="rId220"/>
+    <hyperlink ref="A112" r:id="rId221"/>
+    <hyperlink ref="C112" r:id="rId222"/>
+    <hyperlink ref="A113" r:id="rId223"/>
+    <hyperlink ref="C113" r:id="rId224"/>
+    <hyperlink ref="A114" r:id="rId225"/>
+    <hyperlink ref="C114" r:id="rId226"/>
+    <hyperlink ref="A115" r:id="rId227"/>
+    <hyperlink ref="C115" r:id="rId228"/>
+    <hyperlink ref="A116" r:id="rId229"/>
+    <hyperlink ref="C116" r:id="rId230"/>
+    <hyperlink ref="A117" r:id="rId231"/>
+    <hyperlink ref="C117" r:id="rId232"/>
+    <hyperlink ref="A118" r:id="rId233"/>
+    <hyperlink ref="C118" r:id="rId234"/>
+    <hyperlink ref="A119" r:id="rId235"/>
+    <hyperlink ref="C119" r:id="rId236"/>
+    <hyperlink ref="A120" r:id="rId237"/>
+    <hyperlink ref="C120" r:id="rId238"/>
+    <hyperlink ref="A121" r:id="rId239"/>
+    <hyperlink ref="C121" r:id="rId240"/>
+    <hyperlink ref="A122" r:id="rId241"/>
+    <hyperlink ref="C122" r:id="rId242"/>
+    <hyperlink ref="A123" r:id="rId243"/>
+    <hyperlink ref="C123" r:id="rId244"/>
+    <hyperlink ref="A124" r:id="rId245"/>
+    <hyperlink ref="C124" r:id="rId246"/>
+    <hyperlink ref="A125" r:id="rId247"/>
+    <hyperlink ref="C125" r:id="rId248"/>
+    <hyperlink ref="A126" r:id="rId249"/>
+    <hyperlink ref="C126" r:id="rId250"/>
+    <hyperlink ref="A127" r:id="rId251"/>
+    <hyperlink ref="C127" r:id="rId252"/>
+    <hyperlink ref="A128" r:id="rId253"/>
+    <hyperlink ref="C128" r:id="rId254"/>
+    <hyperlink ref="A129" r:id="rId255"/>
+    <hyperlink ref="C129" r:id="rId256"/>
+    <hyperlink ref="A130" r:id="rId257"/>
+    <hyperlink ref="C130" r:id="rId258"/>
+    <hyperlink ref="A131" r:id="rId259"/>
+    <hyperlink ref="C131" r:id="rId260"/>
+    <hyperlink ref="A132" r:id="rId261"/>
+    <hyperlink ref="C132" r:id="rId262"/>
+    <hyperlink ref="A133" r:id="rId263"/>
+    <hyperlink ref="C133" r:id="rId264"/>
+    <hyperlink ref="A134" r:id="rId265"/>
+    <hyperlink ref="C134" r:id="rId266"/>
+    <hyperlink ref="A135" r:id="rId267"/>
+    <hyperlink ref="C135" r:id="rId268"/>
+    <hyperlink ref="A136" r:id="rId269"/>
+    <hyperlink ref="C136" r:id="rId270"/>
+    <hyperlink ref="A137" r:id="rId271"/>
+    <hyperlink ref="C137" r:id="rId272"/>
+    <hyperlink ref="A138" r:id="rId273"/>
+    <hyperlink ref="C138" r:id="rId274"/>
+    <hyperlink ref="A139" r:id="rId275"/>
+    <hyperlink ref="C139" r:id="rId276"/>
+    <hyperlink ref="A140" r:id="rId277"/>
+    <hyperlink ref="C140" r:id="rId278"/>
+    <hyperlink ref="A141" r:id="rId279"/>
+    <hyperlink ref="C141" r:id="rId280"/>
+    <hyperlink ref="A142" r:id="rId281"/>
+    <hyperlink ref="C142" r:id="rId282"/>
+    <hyperlink ref="A143" r:id="rId283"/>
+    <hyperlink ref="C143" r:id="rId284"/>
+    <hyperlink ref="A144" r:id="rId285"/>
+    <hyperlink ref="C144" r:id="rId286"/>
+    <hyperlink ref="A145" r:id="rId287"/>
+    <hyperlink ref="C145" r:id="rId288"/>
+    <hyperlink ref="A146" r:id="rId289"/>
+    <hyperlink ref="C146" r:id="rId290"/>
+    <hyperlink ref="A147" r:id="rId291"/>
+    <hyperlink ref="C147" r:id="rId292"/>
+    <hyperlink ref="A148" r:id="rId293"/>
+    <hyperlink ref="C148" r:id="rId294"/>
+    <hyperlink ref="A149" r:id="rId295"/>
+    <hyperlink ref="C149" r:id="rId296"/>
+    <hyperlink ref="A150" r:id="rId297"/>
+    <hyperlink ref="C150" r:id="rId298"/>
+    <hyperlink ref="A151" r:id="rId299"/>
+    <hyperlink ref="C151" r:id="rId300"/>
+    <hyperlink ref="A152" r:id="rId301"/>
+    <hyperlink ref="C152" r:id="rId302"/>
+    <hyperlink ref="A153" r:id="rId303"/>
+    <hyperlink ref="C153" r:id="rId304"/>
+    <hyperlink ref="A154" r:id="rId305"/>
+    <hyperlink ref="C154" r:id="rId306"/>
+    <hyperlink ref="A155" r:id="rId307"/>
+    <hyperlink ref="C155" r:id="rId308"/>
+    <hyperlink ref="A156" r:id="rId309"/>
+    <hyperlink ref="C156" r:id="rId310"/>
+    <hyperlink ref="A157" r:id="rId311"/>
+    <hyperlink ref="C157" r:id="rId312"/>
+    <hyperlink ref="A158" r:id="rId313"/>
+    <hyperlink ref="C158" r:id="rId314"/>
+    <hyperlink ref="A159" r:id="rId315"/>
+    <hyperlink ref="C159" r:id="rId316"/>
+    <hyperlink ref="A160" r:id="rId317"/>
+    <hyperlink ref="C160" r:id="rId318"/>
+    <hyperlink ref="A161" r:id="rId319"/>
+    <hyperlink ref="C161" r:id="rId320"/>
+    <hyperlink ref="A162" r:id="rId321"/>
+    <hyperlink ref="C162" r:id="rId322"/>
+    <hyperlink ref="A163" r:id="rId323"/>
+    <hyperlink ref="C163" r:id="rId324"/>
+    <hyperlink ref="A164" r:id="rId325"/>
+    <hyperlink ref="C164" r:id="rId326"/>
+    <hyperlink ref="A165" r:id="rId327"/>
+    <hyperlink ref="C165" r:id="rId328"/>
+    <hyperlink ref="A166" r:id="rId329"/>
+    <hyperlink ref="C166" r:id="rId330"/>
+    <hyperlink ref="A167" r:id="rId331"/>
+    <hyperlink ref="C167" r:id="rId332"/>
+    <hyperlink ref="A168" r:id="rId333"/>
+    <hyperlink ref="C168" r:id="rId334"/>
+    <hyperlink ref="A169" r:id="rId335"/>
+    <hyperlink ref="C169" r:id="rId336"/>
+    <hyperlink ref="A170" r:id="rId337"/>
+    <hyperlink ref="C170" r:id="rId338"/>
+    <hyperlink ref="A171" r:id="rId339"/>
+    <hyperlink ref="C171" r:id="rId340"/>
+    <hyperlink ref="A172" r:id="rId341"/>
+    <hyperlink ref="C172" r:id="rId342"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>URL</t>
   </si>
@@ -34,13 +34,13 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://www.oceanhotels.net/</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_MEXICO_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_mexico/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130504" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130504.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s</t>
+  </si>
+  <si>
+    <t>preview_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/ver_cine/2024/06/green_border/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
   </si>
   <si>
     <t>300</t>
@@ -49,76 +49,16 @@
     <t>600</t>
   </si>
   <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_MEXICO_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_mexico/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130505" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130505.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>preview_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/ver_cine/2024/06/green_border/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
     <t>250</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_RD_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_republicadominicana/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130506" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130506.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_RD_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_republicadominicana/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130507" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130507.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_JAMAICA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_jamaica/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130508" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130508.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_prs-1_JAMAICA_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_jamaica/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-prs-1&amp;utm_campaign=ao&amp;tc_alt=130509" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130509.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_MEXICO_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_mexico/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130510" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130510.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_MEXICO_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_mexico/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130511" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130511.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_RD_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_republicadominicana/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130512" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130512.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_RD_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_republicadominicana/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130513" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130513.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_JAMAICA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_jamaica/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130514" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130514.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>ocean-us_v1mp_AO_dis-p20_rtg-1_JAMAICA_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/OCEAN_HOTELS/2024/04/preroll_jamaica/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.oceanhotels.net/?utm_source=v1mp&amp;utm_medium=dis-p20-rtg-1&amp;utm_campaign=ao&amp;tc_alt=130515" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_h10-hotels-es_np_130515.js?n_o_nu=not&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -463,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,232 +469,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-    <hyperlink ref="C5" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="A7" r:id="rId11"/>
-    <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="A8" r:id="rId13"/>
-    <hyperlink ref="C8" r:id="rId14"/>
-    <hyperlink ref="A9" r:id="rId15"/>
-    <hyperlink ref="C9" r:id="rId16"/>
-    <hyperlink ref="A10" r:id="rId17"/>
-    <hyperlink ref="C10" r:id="rId18"/>
-    <hyperlink ref="A11" r:id="rId19"/>
-    <hyperlink ref="C11" r:id="rId20"/>
-    <hyperlink ref="A12" r:id="rId21"/>
-    <hyperlink ref="C12" r:id="rId22"/>
-    <hyperlink ref="A13" r:id="rId23"/>
-    <hyperlink ref="C13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -34,31 +34,109 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s</t>
-  </si>
-  <si>
-    <t>preview_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/ver_cine/2024/06/green_border/preroll/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+    <t>https://colabora.contraelcancer.es/dona</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=300x250&amp;tc_alt=138953" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138953&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=300x600&amp;tc_alt=138954" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138954&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
-    <t>preview_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/ver_cine/2024/06/green_border/preroll/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.youtube.com/watch?v=IMwg-hTrEYo&amp;t=2s" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=728x90&amp;tc_alt=138955" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138955&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=970x250&amp;tc_alt=138956" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138956&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>250</t>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=160x600&amp;tc_alt=138957" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138957&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=320x100&amp;tc_alt=138958" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138958&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>https://colabora.contraelcancer.es/socios</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=970x250&amp;tc_alt=138959" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138959&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=728x90&amp;tc_alt=138960" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138960&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=320x100&amp;tc_alt=138961" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138961&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=300x600&amp;tc_alt=138962" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138962&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=300x250&amp;tc_alt=138963" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138963&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=160x600&amp;tc_alt=138964" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138964&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -403,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,10 +541,210 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -475,6 +753,26 @@
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="C9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="C12" r:id="rId22"/>
+    <hyperlink ref="A13" r:id="rId23"/>
+    <hyperlink ref="C13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>URL</t>
   </si>
@@ -34,109 +34,49 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://colabora.contraelcancer.es/dona</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=300x250&amp;tc_alt=138953" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138953&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>https://fpmaragall.org/identidad/</t>
+  </si>
+  <si>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-JUAN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-juan/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-JUAN&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=300x600&amp;tc_alt=138954" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138954&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>600</t>
   </si>
   <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=728x90&amp;tc_alt=138955" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138955&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=970x250&amp;tc_alt=138956" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138956&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=160x600&amp;tc_alt=138957" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138957&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-DONACION_dis-prem_prs-1_JULIO-24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/donacion/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/dona?utm_source=v1mp&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=ao-donacion&amp;utm_content=320x100&amp;tc_alt=138958" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138958&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>https://colabora.contraelcancer.es/socios</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=970x250&amp;tc_alt=138959" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138959&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=728x90&amp;tc_alt=138960" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138960&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=320x100&amp;tc_alt=138961" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138961&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=300x600&amp;tc_alt=138962" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138962&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=300x250&amp;tc_alt=138963" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138963&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>aecc-es_v1mp_AO-SOCIOS_dis_prs-1_JULIO-24_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AECC/2024/07/socios/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://colabora.contraelcancer.es/socios?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ao-socios&amp;utm_content=160x600&amp;tc_alt=138964" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_AECC.js?tc=138964&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-JUAN_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/juan/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-JUAN&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-MARTA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-marta/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-MARTA&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-MARTA_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/marta/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-MARTA&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-LUIS_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-luis/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-LUIS&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-LUIS_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/luis/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-LUIS&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
@@ -481,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,7 +484,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -552,19 +492,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -572,16 +512,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -592,19 +532,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -612,139 +552,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -761,18 +581,6 @@
     <hyperlink ref="C6" r:id="rId10"/>
     <hyperlink ref="A7" r:id="rId11"/>
     <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="A8" r:id="rId13"/>
-    <hyperlink ref="C8" r:id="rId14"/>
-    <hyperlink ref="A9" r:id="rId15"/>
-    <hyperlink ref="C9" r:id="rId16"/>
-    <hyperlink ref="A10" r:id="rId17"/>
-    <hyperlink ref="C10" r:id="rId18"/>
-    <hyperlink ref="A11" r:id="rId19"/>
-    <hyperlink ref="C11" r:id="rId20"/>
-    <hyperlink ref="A12" r:id="rId21"/>
-    <hyperlink ref="C12" r:id="rId22"/>
-    <hyperlink ref="A13" r:id="rId23"/>
-    <hyperlink ref="C13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="257">
   <si>
     <t>URL</t>
   </si>
@@ -34,13 +34,13 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://fpmaragall.org/identidad/</t>
-  </si>
-  <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-JUAN_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-juan/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-JUAN&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+    <t>https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=300x600&amp;tc_alt=140145" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140145&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>300</t>
@@ -49,34 +49,742 @@
     <t>600</t>
   </si>
   <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-JUAN_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/juan/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-JUAN&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-MARTA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-marta/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-MARTA&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-MARTA_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/marta/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-MARTA&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_SLIDER-LUIS_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/spliter-luis/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=SLIDER-LUIS&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>fp-maragall-es_adg_IDENTIDAD_dis-prem_prs-1_FLIPCARD-LUIS_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/PASQUAL_MARGAL/2024/07/flipCard3d/luis/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://fpmaragall.org/identidad/?utm_source=adg&amp;utm_medium=dis-prem-prs-1&amp;utm_campaign=identidad&amp;utm_term=FLIPCARD-LUIS&amp;utm_content=300x600" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=300x250&amp;tc_alt=140146" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140146&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=320x100&amp;tc_alt=140147" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140147&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=970x250&amp;tc_alt=140148" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140148&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=160x600&amp;tc_alt=140149" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140149&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-db&amp;utm_content=728x90&amp;tc_alt=140150" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140150&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=300x600&amp;tc_alt=140151" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140151&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=300x250&amp;tc_alt=140152" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140152&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=320x100&amp;tc_alt=140153" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140153&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=970x250&amp;tc_alt=140154" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140154&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=160x600&amp;tc_alt=140155" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140155&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V1-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v1-ri&amp;utm_content=728x90&amp;tc_alt=140156" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140156&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=300x600&amp;tc_alt=140157" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140157&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=300x250&amp;tc_alt=140158" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140158&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=320x100&amp;tc_alt=140159" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140159&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=970x250&amp;tc_alt=140160" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140160&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=160x600&amp;tc_alt=140161" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140161&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-db&amp;utm_content=728x90&amp;tc_alt=140162" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140162&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=300x600&amp;tc_alt=140163" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140163&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=300x250&amp;tc_alt=140164" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140164&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=320x100&amp;tc_alt=140165" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140165&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=970x250&amp;tc_alt=140166" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140166&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=160x600&amp;tc_alt=140167" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140167&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V2-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v2-ri&amp;utm_content=728x90&amp;tc_alt=140168" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140168&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=300x600&amp;tc_alt=140169" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140169&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=300x250&amp;tc_alt=140170" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140170&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=320x100&amp;tc_alt=140171" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140171&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=970x250&amp;tc_alt=140172" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140172&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=160x600&amp;tc_alt=140173" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140173&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-db&amp;utm_content=728x90&amp;tc_alt=140174" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140174&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=300x600&amp;tc_alt=140175" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140175&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=300x250&amp;tc_alt=140176" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140176&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=320x100&amp;tc_alt=140177" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140177&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=970x250&amp;tc_alt=140178" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140178&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=160x600&amp;tc_alt=140179" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140179&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V3-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v3-ri&amp;utm_content=728x90&amp;tc_alt=140180" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140180&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=300x600&amp;tc_alt=140181" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140181&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=300x250&amp;tc_alt=140182" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140182&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=320x100&amp;tc_alt=140183" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140183&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=970x250&amp;tc_alt=140184" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140184&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=160x600&amp;tc_alt=140185" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140185&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-db&amp;utm_content=728x90&amp;tc_alt=140186" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140186&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=300x600&amp;tc_alt=140187" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140187&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=300x250&amp;tc_alt=140188" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140188&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=320x100&amp;tc_alt=140189" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140189&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=970x250&amp;tc_alt=140190" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140190&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=160x600&amp;tc_alt=140191" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140191&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V4-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v4-ri&amp;utm_content=728x90&amp;tc_alt=140192" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140192&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=300x600&amp;tc_alt=140193" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140193&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=300x250&amp;tc_alt=140194" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140194&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=320x100&amp;tc_alt=140195" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140195&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=970x250&amp;tc_alt=140196" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140196&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=160x600&amp;tc_alt=140197" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140197&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-db&amp;utm_content=728x90&amp;tc_alt=140198" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140198&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=300x600&amp;tc_alt=140199" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140199&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=300x250&amp;tc_alt=140200" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140200&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=320x100&amp;tc_alt=140201" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140201&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=970x250&amp;tc_alt=140202" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140202&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=160x600&amp;tc_alt=140203" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140203&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_prs-1_V5-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DN7PW&amp;utm_term=v5-ri&amp;utm_content=728x90&amp;tc_alt=140204" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140204&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=300x600&amp;tc_alt=140205" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140205&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=300x250&amp;tc_alt=140206" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140206&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=320x100&amp;tc_alt=140207" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140207&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=970x250&amp;tc_alt=140208" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140208&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=160x600&amp;tc_alt=140209" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140209&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-db&amp;utm_content=728x90&amp;tc_alt=140210" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140210&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=300x600&amp;tc_alt=140211" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140211&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=300x250&amp;tc_alt=140212" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140212&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=320x100&amp;tc_alt=140213" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140213&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=970x250&amp;tc_alt=140214" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140214&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=160x600&amp;tc_alt=140215" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140215&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V1-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v1/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v1-ri&amp;utm_content=728x90&amp;tc_alt=140216" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140216&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=300x600&amp;tc_alt=140217" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140217&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=300x250&amp;tc_alt=140218" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140218&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=320x100&amp;tc_alt=140219" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140219&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=970x250&amp;tc_alt=140220" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140220&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=160x600&amp;tc_alt=140221" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140221&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-db&amp;utm_content=728x90&amp;tc_alt=140222" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140222&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=300x600&amp;tc_alt=140223" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140223&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=300x250&amp;tc_alt=140224" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140224&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=320x100&amp;tc_alt=140225" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140225&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=970x250&amp;tc_alt=140226" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140226&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=160x600&amp;tc_alt=140227" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140227&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V2-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v2/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v2-ri&amp;utm_content=728x90&amp;tc_alt=140228" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140228&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=300x600&amp;tc_alt=140229" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140229&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=300x250&amp;tc_alt=140230" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140230&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=320x100&amp;tc_alt=140231" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140231&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=970x250&amp;tc_alt=140232" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140232&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=160x600&amp;tc_alt=140233" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140233&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-db&amp;utm_content=728x90&amp;tc_alt=140234" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140234&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=300x600&amp;tc_alt=140235" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140235&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=300x250&amp;tc_alt=140236" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140236&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=320x100&amp;tc_alt=140237" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140237&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=970x250&amp;tc_alt=140238" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140238&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=160x600&amp;tc_alt=140239" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140239&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V3-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v3/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=display&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v3-ri&amp;utm_content=728x90&amp;tc_alt=140240" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140240&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=300x600&amp;tc_alt=140241" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140241&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=300x250&amp;tc_alt=140242" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140242&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=320x100&amp;tc_alt=140243" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140243&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=970x250&amp;tc_alt=140244" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140244&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=160x600&amp;tc_alt=140245" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140245&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-db&amp;utm_content=728x90&amp;tc_alt=140246" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140246&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=300x600&amp;tc_alt=140247" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140247&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=300x250&amp;tc_alt=140248" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140248&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=320x100&amp;tc_alt=140249" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140249&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=970x250&amp;tc_alt=140250" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140250&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=160x600&amp;tc_alt=140251" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140251&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V4-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v4/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v4-ri&amp;utm_content=728x90&amp;tc_alt=140252" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140252&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=300x600&amp;tc_alt=140253" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140253&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=300x250&amp;tc_alt=140254" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140254&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=320x100&amp;tc_alt=140255" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140255&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=970x250&amp;tc_alt=140256" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140256&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=160x600&amp;tc_alt=140257" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140257&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-DB_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-db&amp;utm_content=728x90&amp;tc_alt=140258" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140258&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=300x600&amp;tc_alt=140259" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140259&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=300x250&amp;tc_alt=140260" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140260&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=320x100&amp;tc_alt=140261" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140261&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=970x250&amp;tc_alt=140262" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140262&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=160x600&amp;tc_alt=140263" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140263&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>iese-pl_v1mp_IEP-LAE-DACH-CONSIDERATION_dis_rtg-1_V5-RI_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/IESE/2024/07/consideration/v5/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://formscloud.iese.edu/landings-artificial-intelligence-warsaw-interview/?utm_source=google&amp;utm_medium=dis-rtg-1&amp;utm_campaign=701Qu00000DMvOZ&amp;utm_term=v5-ri&amp;utm_content=728x90&amp;tc_alt=140264" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_IESE%20Business%20School.js?tc=140264&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -421,7 +1129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,7 +1192,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -492,19 +1200,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -512,19 +1220,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -532,16 +1240,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -552,19 +1260,2299 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>194</v>
+      </c>
+      <c r="E90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>196</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>198</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" t="s">
+        <v>206</v>
+      </c>
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>216</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>220</v>
+      </c>
+      <c r="E103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="s">
+        <v>222</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>226</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>230</v>
+      </c>
+      <c r="E108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>234</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>236</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>238</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>240</v>
+      </c>
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>244</v>
+      </c>
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>246</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>248</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>250</v>
+      </c>
+      <c r="E118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>252</v>
+      </c>
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>254</v>
+      </c>
+      <c r="E120" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>256</v>
+      </c>
+      <c r="E121" t="s">
+        <v>26</v>
+      </c>
+      <c r="F121" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -581,6 +3569,234 @@
     <hyperlink ref="C6" r:id="rId10"/>
     <hyperlink ref="A7" r:id="rId11"/>
     <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="C9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="C12" r:id="rId22"/>
+    <hyperlink ref="A13" r:id="rId23"/>
+    <hyperlink ref="C13" r:id="rId24"/>
+    <hyperlink ref="A14" r:id="rId25"/>
+    <hyperlink ref="C14" r:id="rId26"/>
+    <hyperlink ref="A15" r:id="rId27"/>
+    <hyperlink ref="C15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="C16" r:id="rId30"/>
+    <hyperlink ref="A17" r:id="rId31"/>
+    <hyperlink ref="C17" r:id="rId32"/>
+    <hyperlink ref="A18" r:id="rId33"/>
+    <hyperlink ref="C18" r:id="rId34"/>
+    <hyperlink ref="A19" r:id="rId35"/>
+    <hyperlink ref="C19" r:id="rId36"/>
+    <hyperlink ref="A20" r:id="rId37"/>
+    <hyperlink ref="C20" r:id="rId38"/>
+    <hyperlink ref="A21" r:id="rId39"/>
+    <hyperlink ref="C21" r:id="rId40"/>
+    <hyperlink ref="A22" r:id="rId41"/>
+    <hyperlink ref="C22" r:id="rId42"/>
+    <hyperlink ref="A23" r:id="rId43"/>
+    <hyperlink ref="C23" r:id="rId44"/>
+    <hyperlink ref="A24" r:id="rId45"/>
+    <hyperlink ref="C24" r:id="rId46"/>
+    <hyperlink ref="A25" r:id="rId47"/>
+    <hyperlink ref="C25" r:id="rId48"/>
+    <hyperlink ref="A26" r:id="rId49"/>
+    <hyperlink ref="C26" r:id="rId50"/>
+    <hyperlink ref="A27" r:id="rId51"/>
+    <hyperlink ref="C27" r:id="rId52"/>
+    <hyperlink ref="A28" r:id="rId53"/>
+    <hyperlink ref="C28" r:id="rId54"/>
+    <hyperlink ref="A29" r:id="rId55"/>
+    <hyperlink ref="C29" r:id="rId56"/>
+    <hyperlink ref="A30" r:id="rId57"/>
+    <hyperlink ref="C30" r:id="rId58"/>
+    <hyperlink ref="A31" r:id="rId59"/>
+    <hyperlink ref="C31" r:id="rId60"/>
+    <hyperlink ref="A32" r:id="rId61"/>
+    <hyperlink ref="C32" r:id="rId62"/>
+    <hyperlink ref="A33" r:id="rId63"/>
+    <hyperlink ref="C33" r:id="rId64"/>
+    <hyperlink ref="A34" r:id="rId65"/>
+    <hyperlink ref="C34" r:id="rId66"/>
+    <hyperlink ref="A35" r:id="rId67"/>
+    <hyperlink ref="C35" r:id="rId68"/>
+    <hyperlink ref="A36" r:id="rId69"/>
+    <hyperlink ref="C36" r:id="rId70"/>
+    <hyperlink ref="A37" r:id="rId71"/>
+    <hyperlink ref="C37" r:id="rId72"/>
+    <hyperlink ref="A38" r:id="rId73"/>
+    <hyperlink ref="C38" r:id="rId74"/>
+    <hyperlink ref="A39" r:id="rId75"/>
+    <hyperlink ref="C39" r:id="rId76"/>
+    <hyperlink ref="A40" r:id="rId77"/>
+    <hyperlink ref="C40" r:id="rId78"/>
+    <hyperlink ref="A41" r:id="rId79"/>
+    <hyperlink ref="C41" r:id="rId80"/>
+    <hyperlink ref="A42" r:id="rId81"/>
+    <hyperlink ref="C42" r:id="rId82"/>
+    <hyperlink ref="A43" r:id="rId83"/>
+    <hyperlink ref="C43" r:id="rId84"/>
+    <hyperlink ref="A44" r:id="rId85"/>
+    <hyperlink ref="C44" r:id="rId86"/>
+    <hyperlink ref="A45" r:id="rId87"/>
+    <hyperlink ref="C45" r:id="rId88"/>
+    <hyperlink ref="A46" r:id="rId89"/>
+    <hyperlink ref="C46" r:id="rId90"/>
+    <hyperlink ref="A47" r:id="rId91"/>
+    <hyperlink ref="C47" r:id="rId92"/>
+    <hyperlink ref="A48" r:id="rId93"/>
+    <hyperlink ref="C48" r:id="rId94"/>
+    <hyperlink ref="A49" r:id="rId95"/>
+    <hyperlink ref="C49" r:id="rId96"/>
+    <hyperlink ref="A50" r:id="rId97"/>
+    <hyperlink ref="C50" r:id="rId98"/>
+    <hyperlink ref="A51" r:id="rId99"/>
+    <hyperlink ref="C51" r:id="rId100"/>
+    <hyperlink ref="A52" r:id="rId101"/>
+    <hyperlink ref="C52" r:id="rId102"/>
+    <hyperlink ref="A53" r:id="rId103"/>
+    <hyperlink ref="C53" r:id="rId104"/>
+    <hyperlink ref="A54" r:id="rId105"/>
+    <hyperlink ref="C54" r:id="rId106"/>
+    <hyperlink ref="A55" r:id="rId107"/>
+    <hyperlink ref="C55" r:id="rId108"/>
+    <hyperlink ref="A56" r:id="rId109"/>
+    <hyperlink ref="C56" r:id="rId110"/>
+    <hyperlink ref="A57" r:id="rId111"/>
+    <hyperlink ref="C57" r:id="rId112"/>
+    <hyperlink ref="A58" r:id="rId113"/>
+    <hyperlink ref="C58" r:id="rId114"/>
+    <hyperlink ref="A59" r:id="rId115"/>
+    <hyperlink ref="C59" r:id="rId116"/>
+    <hyperlink ref="A60" r:id="rId117"/>
+    <hyperlink ref="C60" r:id="rId118"/>
+    <hyperlink ref="A61" r:id="rId119"/>
+    <hyperlink ref="C61" r:id="rId120"/>
+    <hyperlink ref="A62" r:id="rId121"/>
+    <hyperlink ref="C62" r:id="rId122"/>
+    <hyperlink ref="A63" r:id="rId123"/>
+    <hyperlink ref="C63" r:id="rId124"/>
+    <hyperlink ref="A64" r:id="rId125"/>
+    <hyperlink ref="C64" r:id="rId126"/>
+    <hyperlink ref="A65" r:id="rId127"/>
+    <hyperlink ref="C65" r:id="rId128"/>
+    <hyperlink ref="A66" r:id="rId129"/>
+    <hyperlink ref="C66" r:id="rId130"/>
+    <hyperlink ref="A67" r:id="rId131"/>
+    <hyperlink ref="C67" r:id="rId132"/>
+    <hyperlink ref="A68" r:id="rId133"/>
+    <hyperlink ref="C68" r:id="rId134"/>
+    <hyperlink ref="A69" r:id="rId135"/>
+    <hyperlink ref="C69" r:id="rId136"/>
+    <hyperlink ref="A70" r:id="rId137"/>
+    <hyperlink ref="C70" r:id="rId138"/>
+    <hyperlink ref="A71" r:id="rId139"/>
+    <hyperlink ref="C71" r:id="rId140"/>
+    <hyperlink ref="A72" r:id="rId141"/>
+    <hyperlink ref="C72" r:id="rId142"/>
+    <hyperlink ref="A73" r:id="rId143"/>
+    <hyperlink ref="C73" r:id="rId144"/>
+    <hyperlink ref="A74" r:id="rId145"/>
+    <hyperlink ref="C74" r:id="rId146"/>
+    <hyperlink ref="A75" r:id="rId147"/>
+    <hyperlink ref="C75" r:id="rId148"/>
+    <hyperlink ref="A76" r:id="rId149"/>
+    <hyperlink ref="C76" r:id="rId150"/>
+    <hyperlink ref="A77" r:id="rId151"/>
+    <hyperlink ref="C77" r:id="rId152"/>
+    <hyperlink ref="A78" r:id="rId153"/>
+    <hyperlink ref="C78" r:id="rId154"/>
+    <hyperlink ref="A79" r:id="rId155"/>
+    <hyperlink ref="C79" r:id="rId156"/>
+    <hyperlink ref="A80" r:id="rId157"/>
+    <hyperlink ref="C80" r:id="rId158"/>
+    <hyperlink ref="A81" r:id="rId159"/>
+    <hyperlink ref="C81" r:id="rId160"/>
+    <hyperlink ref="A82" r:id="rId161"/>
+    <hyperlink ref="C82" r:id="rId162"/>
+    <hyperlink ref="A83" r:id="rId163"/>
+    <hyperlink ref="C83" r:id="rId164"/>
+    <hyperlink ref="A84" r:id="rId165"/>
+    <hyperlink ref="C84" r:id="rId166"/>
+    <hyperlink ref="A85" r:id="rId167"/>
+    <hyperlink ref="C85" r:id="rId168"/>
+    <hyperlink ref="A86" r:id="rId169"/>
+    <hyperlink ref="C86" r:id="rId170"/>
+    <hyperlink ref="A87" r:id="rId171"/>
+    <hyperlink ref="C87" r:id="rId172"/>
+    <hyperlink ref="A88" r:id="rId173"/>
+    <hyperlink ref="C88" r:id="rId174"/>
+    <hyperlink ref="A89" r:id="rId175"/>
+    <hyperlink ref="C89" r:id="rId176"/>
+    <hyperlink ref="A90" r:id="rId177"/>
+    <hyperlink ref="C90" r:id="rId178"/>
+    <hyperlink ref="A91" r:id="rId179"/>
+    <hyperlink ref="C91" r:id="rId180"/>
+    <hyperlink ref="A92" r:id="rId181"/>
+    <hyperlink ref="C92" r:id="rId182"/>
+    <hyperlink ref="A93" r:id="rId183"/>
+    <hyperlink ref="C93" r:id="rId184"/>
+    <hyperlink ref="A94" r:id="rId185"/>
+    <hyperlink ref="C94" r:id="rId186"/>
+    <hyperlink ref="A95" r:id="rId187"/>
+    <hyperlink ref="C95" r:id="rId188"/>
+    <hyperlink ref="A96" r:id="rId189"/>
+    <hyperlink ref="C96" r:id="rId190"/>
+    <hyperlink ref="A97" r:id="rId191"/>
+    <hyperlink ref="C97" r:id="rId192"/>
+    <hyperlink ref="A98" r:id="rId193"/>
+    <hyperlink ref="C98" r:id="rId194"/>
+    <hyperlink ref="A99" r:id="rId195"/>
+    <hyperlink ref="C99" r:id="rId196"/>
+    <hyperlink ref="A100" r:id="rId197"/>
+    <hyperlink ref="C100" r:id="rId198"/>
+    <hyperlink ref="A101" r:id="rId199"/>
+    <hyperlink ref="C101" r:id="rId200"/>
+    <hyperlink ref="A102" r:id="rId201"/>
+    <hyperlink ref="C102" r:id="rId202"/>
+    <hyperlink ref="A103" r:id="rId203"/>
+    <hyperlink ref="C103" r:id="rId204"/>
+    <hyperlink ref="A104" r:id="rId205"/>
+    <hyperlink ref="C104" r:id="rId206"/>
+    <hyperlink ref="A105" r:id="rId207"/>
+    <hyperlink ref="C105" r:id="rId208"/>
+    <hyperlink ref="A106" r:id="rId209"/>
+    <hyperlink ref="C106" r:id="rId210"/>
+    <hyperlink ref="A107" r:id="rId211"/>
+    <hyperlink ref="C107" r:id="rId212"/>
+    <hyperlink ref="A108" r:id="rId213"/>
+    <hyperlink ref="C108" r:id="rId214"/>
+    <hyperlink ref="A109" r:id="rId215"/>
+    <hyperlink ref="C109" r:id="rId216"/>
+    <hyperlink ref="A110" r:id="rId217"/>
+    <hyperlink ref="C110" r:id="rId218"/>
+    <hyperlink ref="A111" r:id="rId219"/>
+    <hyperlink ref="C111" r:id="rId220"/>
+    <hyperlink ref="A112" r:id="rId221"/>
+    <hyperlink ref="C112" r:id="rId222"/>
+    <hyperlink ref="A113" r:id="rId223"/>
+    <hyperlink ref="C113" r:id="rId224"/>
+    <hyperlink ref="A114" r:id="rId225"/>
+    <hyperlink ref="C114" r:id="rId226"/>
+    <hyperlink ref="A115" r:id="rId227"/>
+    <hyperlink ref="C115" r:id="rId228"/>
+    <hyperlink ref="A116" r:id="rId229"/>
+    <hyperlink ref="C116" r:id="rId230"/>
+    <hyperlink ref="A117" r:id="rId231"/>
+    <hyperlink ref="C117" r:id="rId232"/>
+    <hyperlink ref="A118" r:id="rId233"/>
+    <hyperlink ref="C118" r:id="rId234"/>
+    <hyperlink ref="A119" r:id="rId235"/>
+    <hyperlink ref="C119" r:id="rId236"/>
+    <hyperlink ref="A120" r:id="rId237"/>
+    <hyperlink ref="C120" r:id="rId238"/>
+    <hyperlink ref="A121" r:id="rId239"/>
+    <hyperlink ref="C121" r:id="rId240"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>URL</t>
   </si>
@@ -34,13 +34,13 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://wonders.com/ES/es/newsletter</t>
-  </si>
-  <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+    <t>https://www.serenadepuntacana.com/black-friday.html</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152092" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152092&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>160</t>
@@ -49,10 +49,10 @@
     <t>600</t>
   </si>
   <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152093" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152093&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>300</t>
@@ -61,43 +61,64 @@
     <t>250</t>
   </si>
   <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152094" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152094&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152095" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152095&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152096" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152096&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>wonders-es_v1mp_NUEVA-COLECCION_dis_prs-1_PRE-BF-24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/WONDERS/2024/11/pre_bf/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://wonders.com/ES/es/newsletter?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=nueva-coleccion&amp;utm_content=PRE-BF-24" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>https://www.serenadeallsuites.com/black-friday.html</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152097" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152097&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152098" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152098&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152099" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152099&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152100" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152100&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152101" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152101&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -442,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,7 +566,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -553,39 +574,119 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -602,6 +703,14 @@
     <hyperlink ref="C6" r:id="rId10"/>
     <hyperlink ref="A7" r:id="rId11"/>
     <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="C9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -34,43 +34,34 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://www.serenadepuntacana.com/black-friday.html</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152092" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152092&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>160</t>
+    <t>https://www.mibodega.cl/</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x250&amp;tc_alt=152103" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152103&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x600&amp;tc_alt=152104" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152104&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>600</t>
   </si>
   <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152093" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152093&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152094" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152094&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152095" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152095&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=320x100&amp;tc_alt=152105" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152105&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>320</t>
@@ -79,46 +70,55 @@
     <t>100</t>
   </si>
   <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_SERENADE-BF-24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/serenade/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadepuntacana.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=SERENADE-BF-24&amp;tc_alt=152096" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152096&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=728x90&amp;tc_alt=152106" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152106&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=970x250&amp;tc_alt=152107" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152107&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>https://www.serenadeallsuites.com/black-friday.html</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_160x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152097" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152097&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152098" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152098&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152099" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152099&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152100" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152100&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>best-us_v1mp_SERENADE-USA-CAN_dis_rtg-1_ALLSUITS-BF-24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/BEST_HOTELS/2024/11/standard/allsuits/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.serenadeallsuites.com/black-friday.html?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=serenade-usa-can&amp;utm_content=ALLSUITS-BF-24&amp;tc_alt=152101" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Best%20Hotels.js?tc=152101&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x250&amp;tc_alt=152109" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152109&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x600&amp;tc_alt=152110" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152110&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=320x100&amp;tc_alt=152111" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152111&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=728x90&amp;tc_alt=152112" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152112&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=970x250&amp;tc_alt=152113" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152113&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -523,10 +523,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -534,19 +534,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -554,19 +554,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -574,30 +574,30 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -611,82 +611,82 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/BULKAPP/app/ZEM_file.xlsx
+++ b/BULKAPP/app/ZEM_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="548">
   <si>
     <t>URL</t>
   </si>
@@ -34,34 +34,52 @@
     <t>Ad tag height</t>
   </si>
   <si>
-    <t>https://www.mibodega.cl/</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x250&amp;tc_alt=152103" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152103&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>https://resorts.hyattinclusivecollection.com/en-uk/cyber-week</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153073" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153073&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153074" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153074&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x600&amp;tc_alt=152104" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152104&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>600</t>
   </si>
   <si>
-    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=320x100&amp;tc_alt=152105" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152105&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153075" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153075&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153076" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153076&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153077" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153077&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>320</t>
@@ -70,10 +88,10 @@
     <t>100</t>
   </si>
   <si>
-    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=728x90&amp;tc_alt=152106" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152106&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153078" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153078&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t>728</t>
@@ -82,43 +100,1564 @@
     <t>90</t>
   </si>
   <si>
-    <t>mibodega-cl_v1mp_AO_dis_prs-1_BF-24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=970x250&amp;tc_alt=152107" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152107&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_300x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x250&amp;tc_alt=152109" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152109&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_300x600</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=300x600&amp;tc_alt=152110" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152110&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_320x100</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=320x100&amp;tc_alt=152111" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152111&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_728x90</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=728x90&amp;tc_alt=152112" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152112&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>mibodega-cl_v1mp_AO_dis_rtg-1_BF-24_970x250</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/MI_BODEGA/2024/11/bf/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://www.mibodega.cl/?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=mibodega&amp;utm_term=BF-24&amp;utm_content=970x250&amp;tc_alt=152113" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Mega%20Centro.js?tc=152113&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153079" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153079&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153080" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153080&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153081" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153081&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153082" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153082&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153083" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153083&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153084" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153084&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153085" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153085&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153086" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153086&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153087" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153087&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153088" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153088&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153089" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153089&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153090" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153090&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153091" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153091&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153092" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153092&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153093" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153093&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153094" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153094&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153095" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153095&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153096" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153096&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/es-es/cyber-week</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153097" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153097&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153098" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153098&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153099" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153099&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153100" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153100&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153101" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153101&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153102" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153102&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153103" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153103&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153104" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153104&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153105" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153105&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153106" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153106&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153107" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153107&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153108" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153108&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153109" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153109&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153110" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153110&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153111" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153111&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153112" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153112&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153113" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153113&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153114" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153114&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153115" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153115&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153116" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153116&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153117" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153117&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153118" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153118&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153119" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153119&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153120" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153120&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153121" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153121&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153122" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153122&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153123" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153123&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153124" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153124&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153125" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153125&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153126" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153126&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153127" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153127&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153128" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153128&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153129" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153129&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153130" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153130&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153131" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153131&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153132" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153132&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153133" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153133&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153134" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153134&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153135" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153135&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153136" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153136&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153137" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153137&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153138" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153138&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153139" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153139&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153140" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153140&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153141" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153141&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153142" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153142&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153143" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153143&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153144" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153144&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/de-de/cyber-week</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153145" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153145&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153146" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153146&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153147" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153147&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153148" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153148&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153149" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153149&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153150" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153150&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153151" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153151&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153152" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153152&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153153" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153153&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153154" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153154&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153155" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153155&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153156" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153156&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153157" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153157&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153158" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153158&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153159" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153159&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153160" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153160&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153161" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153161&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153162" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153162&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153163" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153163&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153164" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153164&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153165" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153165&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153166" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153166&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153167" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153167&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153168" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153168&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153169" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153169&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153170" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153170&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153171" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153171&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153172" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153172&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153173" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153173&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153174" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153174&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153175" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153175&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153176" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153176&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153177" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153177&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153178" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153178&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153179" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153179&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153180" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153180&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153181" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153181&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153182" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153182&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153183" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153183&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153184" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153184&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153185" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153185&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153186" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153186&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153187" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153187&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153188" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153188&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153189" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153189&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153190" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153190&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153191" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153191&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153192" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153192&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153193" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153193&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153194" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153194&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153195" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153195&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153196" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153196&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153197" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153197&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153198" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153198&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153199" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153199&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153200" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153200&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153201" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153201&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153202" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153202&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153203" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153203&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153204" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153204&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153205" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153205&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153206" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153206&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153207" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153207&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153208" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153208&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153209" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153209&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-eu_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153210" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153210&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153211" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153211&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153212" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153212&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153213" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153213&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153214" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153214&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153215" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153215&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153216" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153216&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153217" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153217&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153218" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153218&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153219" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153219&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153220" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153220&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153221" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153221&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153222" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153222&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153223" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153223&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153224" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153224&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153225" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153225&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153226" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153226&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153227" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153227&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153228" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153228&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153229" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153229&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153230" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153230&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153231" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153231&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153232" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153232&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153233" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153233&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153234" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153234&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153235" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153235&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153236" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153236&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153237" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153237&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153238" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153238&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153239" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153239&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153240" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153240&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153241" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153241&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153242" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153242&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153243" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153243&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153244" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153244&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153245" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153245&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153246" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153246&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153247" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153247&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153248" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153248&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153249" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153249&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153250" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153250&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153251" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153251&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153252" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153252&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153253" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153253&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153254" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153254&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153255" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153255&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153256" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153256&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153257" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153257&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153258" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153258&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153259" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153259&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153260" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153260&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153261" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153261&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153262" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153262&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153263" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153263&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ZOETRY_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/zoetry/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-zoetry&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153264" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153264&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153265" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153265&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153266" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153266&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153267" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153267&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153268" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153268&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153269" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153269&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153270" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153270&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153271" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153271&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153272" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153272&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153273" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153273&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153274" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153274&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153275" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153275&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153276" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153276&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=970x250&amp;tc_alt=153277" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153277&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x600&amp;tc_alt=153278" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153278&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=160x600&amp;tc_alt=153279" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153279&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=300x250&amp;tc_alt=153280" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153280&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=320x100&amp;tc_alt=153281" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153281&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;utm_content=728x90&amp;tc_alt=153282" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153282&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153283" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153283&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153284" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153284&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153285" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153285&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153286" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153286&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153287" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153287&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-ALUA_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/alua/fr/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-alua&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153288" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153288&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153289" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153289&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153290" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153290&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153291" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153291&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153292" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153292&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153293" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153293&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-DREAMS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/fr/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-dreams&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153294" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153294&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153295" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153295&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153296" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153296&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153297" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153297&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153298" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153298&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153299" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153299&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-fr_v1mp_AO-SECRETS_dis_rtg-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/secrets/fr/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/fr-fr/cyber-week?utm_source=v1mp&amp;utm_medium=dis-rtg-1&amp;utm_campaign=AO-secrets&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153300" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153300&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153301" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153301&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153302" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153302&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153303" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153303&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153304" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153304&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153305" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153305&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/en-uk/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153306" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153306&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153307" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153307&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153308" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153308&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153309" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153309&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153310" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153310&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153311" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153311&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153312" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153312&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153313" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153313&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153314" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153314&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153315" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153315&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153316" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153316&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153317" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153317&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-de_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/de/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/de-de/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=DREAMS-MADEIRA&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153318" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153318&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://resorts.hyattinclusivecollection.com/en-uk/cyber-week-pt</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153319" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153319&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153320" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153320&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153321" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153321&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153322" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153322&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153323" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153323&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-pt_v1mp_DREAMS-MADEIRA_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/dreams/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153324" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153324&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153325" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153325&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153326" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153326&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153327" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153327&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153328" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153328&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153329" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153329&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-gb_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/en/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153330" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153330&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_300x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/300x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153331" width="300" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153331&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_160x600</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/160x600/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153332" width="160" height="600" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153332&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_300x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/300x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153333" width="300" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153333&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_970x250</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/970x250/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153334" width="970" height="250" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153334&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_320x100</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/320x100/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153335" width="320" height="100" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153335&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>amresorts-es_v1mp_ALUA-SOUL-COSTA-ADEJE_dis_prs-1_CYBER-WEEK-24_728x90</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://ppj05.cdnwebcloud.com/AM_RESORTS/2024/12/standard/adeje/es/728x90/index.html?n_o_ct={CLICK_URL}&amp;link=https://resorts.hyattinclusivecollection.com/es-es/cyber-week?utm_source=v1mp&amp;utm_medium=dis-prs-1&amp;utm_campaign=ALUA-SOUL-COSTA-ADEJE&amp;utm_term=CYBER-WEEK-24&amp;tc_alt=153336" width="728" height="90" frameborder="0" scrolling="no" marginheight="0" marginwidth="0"&gt;&lt;/iframe&gt;&lt;script type="text/javascript" src="//bucket.cdnwebcloud.com/n_one_vway_Hyatt%20Inclusive%20Collection.js?tc=153336&amp;n_o_ord={CACHEBUSTER}"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -463,7 +2002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +2062,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -534,19 +2073,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -563,10 +2102,10 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -574,19 +2113,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -594,19 +2133,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -614,19 +2153,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -634,19 +2173,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -654,19 +2193,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -674,19 +2213,5099 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" t="s">
+        <v>185</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" t="s">
+        <v>197</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" t="s">
+        <v>212</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D99" t="s">
+        <v>214</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" t="s">
+        <v>220</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" t="s">
+        <v>222</v>
+      </c>
+      <c r="E103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" t="s">
+        <v>224</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D105" t="s">
+        <v>226</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" t="s">
+        <v>228</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" t="s">
+        <v>230</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" t="s">
+        <v>234</v>
+      </c>
+      <c r="E109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D110" t="s">
+        <v>236</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D111" t="s">
+        <v>238</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D112" t="s">
+        <v>240</v>
+      </c>
+      <c r="E112" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113" t="s">
+        <v>242</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B114" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D114" t="s">
+        <v>244</v>
+      </c>
+      <c r="E114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D115" t="s">
+        <v>246</v>
+      </c>
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>248</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>250</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>252</v>
+      </c>
+      <c r="E118" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>254</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>256</v>
+      </c>
+      <c r="E120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>257</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>258</v>
+      </c>
+      <c r="E121" t="s">
+        <v>26</v>
+      </c>
+      <c r="F121" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>259</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>260</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>261</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>262</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>264</v>
+      </c>
+      <c r="E124" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>265</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>266</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>268</v>
+      </c>
+      <c r="E126" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>269</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>270</v>
+      </c>
+      <c r="E127" t="s">
+        <v>26</v>
+      </c>
+      <c r="F127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>271</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>272</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>274</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>276</v>
+      </c>
+      <c r="E130" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>278</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>279</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>280</v>
+      </c>
+      <c r="E132" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>282</v>
+      </c>
+      <c r="E133" t="s">
+        <v>26</v>
+      </c>
+      <c r="F133" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>284</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>286</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>288</v>
+      </c>
+      <c r="E136" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>289</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>290</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>292</v>
+      </c>
+      <c r="E138" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>294</v>
+      </c>
+      <c r="E139" t="s">
+        <v>26</v>
+      </c>
+      <c r="F139" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D140" t="s">
+        <v>296</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D141" t="s">
+        <v>298</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142" t="s">
+        <v>299</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142" t="s">
+        <v>300</v>
+      </c>
+      <c r="E142" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143" t="s">
+        <v>301</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D143" t="s">
+        <v>302</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B144" t="s">
+        <v>303</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D144" t="s">
+        <v>304</v>
+      </c>
+      <c r="E144" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B145" t="s">
+        <v>305</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D145" t="s">
+        <v>306</v>
+      </c>
+      <c r="E145" t="s">
+        <v>26</v>
+      </c>
+      <c r="F145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" t="s">
+        <v>307</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D146" t="s">
+        <v>308</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B147" t="s">
+        <v>309</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" t="s">
+        <v>310</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D148" t="s">
+        <v>312</v>
+      </c>
+      <c r="E148" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B149" t="s">
+        <v>313</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D149" t="s">
+        <v>314</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B150" t="s">
+        <v>315</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D150" t="s">
+        <v>316</v>
+      </c>
+      <c r="E150" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151" t="s">
+        <v>317</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D151" t="s">
+        <v>318</v>
+      </c>
+      <c r="E151" t="s">
+        <v>26</v>
+      </c>
+      <c r="F151" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B152" t="s">
+        <v>319</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D152" t="s">
+        <v>320</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B153" t="s">
+        <v>321</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D153" t="s">
+        <v>322</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B154" t="s">
+        <v>323</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D154" t="s">
+        <v>324</v>
+      </c>
+      <c r="E154" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B155" t="s">
+        <v>325</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D155" t="s">
+        <v>326</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B156" t="s">
+        <v>327</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" t="s">
+        <v>328</v>
+      </c>
+      <c r="E156" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B157" t="s">
+        <v>329</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D157" t="s">
+        <v>330</v>
+      </c>
+      <c r="E157" t="s">
+        <v>26</v>
+      </c>
+      <c r="F157" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B158" t="s">
+        <v>331</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D158" t="s">
+        <v>332</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B159" t="s">
+        <v>333</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D159" t="s">
+        <v>334</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B160" t="s">
+        <v>335</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D160" t="s">
+        <v>336</v>
+      </c>
+      <c r="E160" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B161" t="s">
+        <v>337</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D161" t="s">
+        <v>338</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B162" t="s">
+        <v>339</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D162" t="s">
+        <v>340</v>
+      </c>
+      <c r="E162" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B163" t="s">
+        <v>341</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D163" t="s">
+        <v>342</v>
+      </c>
+      <c r="E163" t="s">
+        <v>26</v>
+      </c>
+      <c r="F163" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>343</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>344</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>345</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>346</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>347</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>348</v>
+      </c>
+      <c r="E166" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>349</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>350</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>351</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>352</v>
+      </c>
+      <c r="E168" t="s">
+        <v>22</v>
+      </c>
+      <c r="F168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>353</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>354</v>
+      </c>
+      <c r="E169" t="s">
+        <v>26</v>
+      </c>
+      <c r="F169" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" t="s">
+        <v>355</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>356</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>357</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>358</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>359</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>360</v>
+      </c>
+      <c r="E172" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>361</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>362</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>363</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>364</v>
+      </c>
+      <c r="E174" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>365</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>366</v>
+      </c>
+      <c r="E175" t="s">
+        <v>26</v>
+      </c>
+      <c r="F175" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>367</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>368</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>369</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>370</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>371</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>372</v>
+      </c>
+      <c r="E178" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>373</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>374</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>375</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>376</v>
+      </c>
+      <c r="E180" t="s">
+        <v>22</v>
+      </c>
+      <c r="F180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>377</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>378</v>
+      </c>
+      <c r="E181" t="s">
+        <v>26</v>
+      </c>
+      <c r="F181" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>380</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>381</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>382</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>383</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>384</v>
+      </c>
+      <c r="E184" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>385</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>386</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>387</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>388</v>
+      </c>
+      <c r="E186" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>389</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>390</v>
+      </c>
+      <c r="E187" t="s">
+        <v>26</v>
+      </c>
+      <c r="F187" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B188" t="s">
+        <v>391</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D188" t="s">
+        <v>392</v>
+      </c>
+      <c r="E188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B189" t="s">
+        <v>393</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D189" t="s">
+        <v>394</v>
+      </c>
+      <c r="E189" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B190" t="s">
+        <v>395</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D190" t="s">
+        <v>396</v>
+      </c>
+      <c r="E190" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B191" t="s">
+        <v>397</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D191" t="s">
+        <v>398</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B192" t="s">
+        <v>399</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D192" t="s">
+        <v>400</v>
+      </c>
+      <c r="E192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B193" t="s">
+        <v>401</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D193" t="s">
+        <v>402</v>
+      </c>
+      <c r="E193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F193" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B194" t="s">
+        <v>403</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D194" t="s">
+        <v>404</v>
+      </c>
+      <c r="E194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B195" t="s">
+        <v>405</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D195" t="s">
+        <v>406</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B196" t="s">
+        <v>407</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D196" t="s">
+        <v>408</v>
+      </c>
+      <c r="E196" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B197" t="s">
+        <v>409</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D197" t="s">
+        <v>410</v>
+      </c>
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B198" t="s">
+        <v>411</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D198" t="s">
+        <v>412</v>
+      </c>
+      <c r="E198" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B199" t="s">
+        <v>413</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D199" t="s">
+        <v>414</v>
+      </c>
+      <c r="E199" t="s">
+        <v>26</v>
+      </c>
+      <c r="F199" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B200" t="s">
+        <v>415</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D200" t="s">
+        <v>416</v>
+      </c>
+      <c r="E200" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B201" t="s">
+        <v>417</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D201" t="s">
+        <v>418</v>
+      </c>
+      <c r="E201" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B202" t="s">
+        <v>419</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D202" t="s">
+        <v>420</v>
+      </c>
+      <c r="E202" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B203" t="s">
+        <v>421</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D203" t="s">
+        <v>422</v>
+      </c>
+      <c r="E203" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B204" t="s">
+        <v>423</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D204" t="s">
+        <v>424</v>
+      </c>
+      <c r="E204" t="s">
+        <v>22</v>
+      </c>
+      <c r="F204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B205" t="s">
+        <v>425</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D205" t="s">
+        <v>426</v>
+      </c>
+      <c r="E205" t="s">
+        <v>26</v>
+      </c>
+      <c r="F205" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B206" t="s">
+        <v>427</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D206" t="s">
+        <v>428</v>
+      </c>
+      <c r="E206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B207" t="s">
+        <v>429</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D207" t="s">
+        <v>430</v>
+      </c>
+      <c r="E207" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B208" t="s">
+        <v>431</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D208" t="s">
+        <v>432</v>
+      </c>
+      <c r="E208" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B209" t="s">
+        <v>433</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D209" t="s">
+        <v>434</v>
+      </c>
+      <c r="E209" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B210" t="s">
+        <v>435</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D210" t="s">
+        <v>436</v>
+      </c>
+      <c r="E210" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D211" t="s">
+        <v>438</v>
+      </c>
+      <c r="E211" t="s">
+        <v>26</v>
+      </c>
+      <c r="F211" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>439</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D212" t="s">
+        <v>440</v>
+      </c>
+      <c r="E212" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B213" t="s">
+        <v>441</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D213" t="s">
+        <v>442</v>
+      </c>
+      <c r="E213" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B214" t="s">
+        <v>443</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D214" t="s">
+        <v>444</v>
+      </c>
+      <c r="E214" t="s">
+        <v>17</v>
+      </c>
+      <c r="F214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B215" t="s">
+        <v>445</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D215" t="s">
+        <v>446</v>
+      </c>
+      <c r="E215" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B216" t="s">
+        <v>447</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D216" t="s">
+        <v>448</v>
+      </c>
+      <c r="E216" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B217" t="s">
+        <v>449</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D217" t="s">
+        <v>450</v>
+      </c>
+      <c r="E217" t="s">
+        <v>26</v>
+      </c>
+      <c r="F217" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B218" t="s">
+        <v>451</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D218" t="s">
+        <v>452</v>
+      </c>
+      <c r="E218" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B219" t="s">
+        <v>453</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D219" t="s">
+        <v>454</v>
+      </c>
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B220" t="s">
+        <v>455</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D220" t="s">
+        <v>456</v>
+      </c>
+      <c r="E220" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B221" t="s">
+        <v>457</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D221" t="s">
+        <v>458</v>
+      </c>
+      <c r="E221" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B222" t="s">
+        <v>459</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D222" t="s">
+        <v>460</v>
+      </c>
+      <c r="E222" t="s">
+        <v>22</v>
+      </c>
+      <c r="F222" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B223" t="s">
+        <v>461</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D223" t="s">
+        <v>462</v>
+      </c>
+      <c r="E223" t="s">
+        <v>26</v>
+      </c>
+      <c r="F223" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B224" t="s">
+        <v>463</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D224" t="s">
+        <v>464</v>
+      </c>
+      <c r="E224" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B225" t="s">
+        <v>465</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D225" t="s">
+        <v>466</v>
+      </c>
+      <c r="E225" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B226" t="s">
+        <v>467</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D226" t="s">
+        <v>468</v>
+      </c>
+      <c r="E226" t="s">
+        <v>17</v>
+      </c>
+      <c r="F226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B227" t="s">
+        <v>469</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D227" t="s">
+        <v>470</v>
+      </c>
+      <c r="E227" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B228" t="s">
+        <v>471</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D228" t="s">
+        <v>472</v>
+      </c>
+      <c r="E228" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B229" t="s">
+        <v>473</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D229" t="s">
+        <v>474</v>
+      </c>
+      <c r="E229" t="s">
+        <v>26</v>
+      </c>
+      <c r="F229" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>475</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>476</v>
+      </c>
+      <c r="E230" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>477</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>478</v>
+      </c>
+      <c r="E231" t="s">
+        <v>17</v>
+      </c>
+      <c r="F231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>479</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>480</v>
+      </c>
+      <c r="E232" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>481</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>482</v>
+      </c>
+      <c r="E233" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>483</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>484</v>
+      </c>
+      <c r="E234" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>485</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>486</v>
+      </c>
+      <c r="E235" t="s">
+        <v>26</v>
+      </c>
+      <c r="F235" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B236" t="s">
+        <v>487</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D236" t="s">
+        <v>488</v>
+      </c>
+      <c r="E236" t="s">
+        <v>13</v>
+      </c>
+      <c r="F236" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B237" t="s">
+        <v>489</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D237" t="s">
+        <v>490</v>
+      </c>
+      <c r="E237" t="s">
+        <v>17</v>
+      </c>
+      <c r="F237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B238" t="s">
+        <v>491</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D238" t="s">
+        <v>492</v>
+      </c>
+      <c r="E238" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B239" t="s">
+        <v>493</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D239" t="s">
+        <v>494</v>
+      </c>
+      <c r="E239" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B240" t="s">
+        <v>495</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D240" t="s">
+        <v>496</v>
+      </c>
+      <c r="E240" t="s">
+        <v>22</v>
+      </c>
+      <c r="F240" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B241" t="s">
+        <v>497</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D241" t="s">
+        <v>498</v>
+      </c>
+      <c r="E241" t="s">
+        <v>26</v>
+      </c>
+      <c r="F241" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B242" t="s">
+        <v>499</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D242" t="s">
+        <v>500</v>
+      </c>
+      <c r="E242" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B243" t="s">
+        <v>501</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D243" t="s">
+        <v>502</v>
+      </c>
+      <c r="E243" t="s">
+        <v>17</v>
+      </c>
+      <c r="F243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B244" t="s">
+        <v>503</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D244" t="s">
+        <v>504</v>
+      </c>
+      <c r="E244" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B245" t="s">
+        <v>505</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D245" t="s">
+        <v>506</v>
+      </c>
+      <c r="E245" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B246" t="s">
+        <v>507</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D246" t="s">
+        <v>508</v>
+      </c>
+      <c r="E246" t="s">
+        <v>22</v>
+      </c>
+      <c r="F246" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B247" t="s">
+        <v>509</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D247" t="s">
+        <v>510</v>
+      </c>
+      <c r="E247" t="s">
+        <v>26</v>
+      </c>
+      <c r="F247" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B248" t="s">
+        <v>512</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D248" t="s">
+        <v>513</v>
+      </c>
+      <c r="E248" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B249" t="s">
+        <v>514</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D249" t="s">
+        <v>515</v>
+      </c>
+      <c r="E249" t="s">
+        <v>17</v>
+      </c>
+      <c r="F249" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B250" t="s">
+        <v>516</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D250" t="s">
+        <v>517</v>
+      </c>
+      <c r="E250" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B251" t="s">
+        <v>518</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D251" t="s">
+        <v>519</v>
+      </c>
+      <c r="E251" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B252" t="s">
+        <v>520</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D252" t="s">
+        <v>521</v>
+      </c>
+      <c r="E252" t="s">
+        <v>22</v>
+      </c>
+      <c r="F252" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B253" t="s">
+        <v>522</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D253" t="s">
+        <v>523</v>
+      </c>
+      <c r="E253" t="s">
+        <v>26</v>
+      </c>
+      <c r="F253" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" t="s">
+        <v>524</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>525</v>
+      </c>
+      <c r="E254" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B255" t="s">
+        <v>526</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>527</v>
+      </c>
+      <c r="E255" t="s">
+        <v>17</v>
+      </c>
+      <c r="F255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B256" t="s">
+        <v>528</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="s">
+        <v>529</v>
+      </c>
+      <c r="E256" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257" t="s">
+        <v>530</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>531</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" t="s">
+        <v>532</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>533</v>
+      </c>
+      <c r="E258" t="s">
+        <v>22</v>
+      </c>
+      <c r="F258" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" t="s">
+        <v>534</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>535</v>
+      </c>
+      <c r="E259" t="s">
+        <v>26</v>
+      </c>
+      <c r="F259" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B260" t="s">
+        <v>536</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D260" t="s">
+        <v>537</v>
+      </c>
+      <c r="E260" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B261" t="s">
+        <v>538</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D261" t="s">
+        <v>539</v>
+      </c>
+      <c r="E261" t="s">
+        <v>17</v>
+      </c>
+      <c r="F261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B262" t="s">
+        <v>540</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D262" t="s">
+        <v>541</v>
+      </c>
+      <c r="E262" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B263" t="s">
+        <v>542</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D263" t="s">
+        <v>543</v>
+      </c>
+      <c r="E263" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B264" t="s">
+        <v>544</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D264" t="s">
+        <v>545</v>
+      </c>
+      <c r="E264" t="s">
+        <v>22</v>
+      </c>
+      <c r="F264" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B265" t="s">
+        <v>546</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D265" t="s">
+        <v>547</v>
+      </c>
+      <c r="E265" t="s">
+        <v>26</v>
+      </c>
+      <c r="F265" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -711,6 +7330,514 @@
     <hyperlink ref="C10" r:id="rId18"/>
     <hyperlink ref="A11" r:id="rId19"/>
     <hyperlink ref="C11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="C12" r:id="rId22"/>
+    <hyperlink ref="A13" r:id="rId23"/>
+    <hyperlink ref="C13" r:id="rId24"/>
+    <hyperlink ref="A14" r:id="rId25"/>
+    <hyperlink ref="C14" r:id="rId26"/>
+    <hyperlink ref="A15" r:id="rId27"/>
+    <hyperlink ref="C15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="C16" r:id="rId30"/>
+    <hyperlink ref="A17" r:id="rId31"/>
+    <hyperlink ref="C17" r:id="rId32"/>
+    <hyperlink ref="A18" r:id="rId33"/>
+    <hyperlink ref="C18" r:id="rId34"/>
+    <hyperlink ref="A19" r:id="rId35"/>
+    <hyperlink ref="C19" r:id="rId36"/>
+    <hyperlink ref="A20" r:id="rId37"/>
+    <hyperlink ref="C20" r:id="rId38"/>
+    <hyperlink ref="A21" r:id="rId39"/>
+    <hyperlink ref="C21" r:id="rId40"/>
+    <hyperlink ref="A22" r:id="rId41"/>
+    <hyperlink ref="C22" r:id="rId42"/>
+    <hyperlink ref="A23" r:id="rId43"/>
+    <hyperlink ref="C23" r:id="rId44"/>
+    <hyperlink ref="A24" r:id="rId45"/>
+    <hyperlink ref="C24" r:id="rId46"/>
+    <hyperlink ref="A25" r:id="rId47"/>
+    <hyperlink ref="C25" r:id="rId48"/>
+    <hyperlink ref="A26" r:id="rId49"/>
+    <hyperlink ref="C26" r:id="rId50"/>
+    <hyperlink ref="A27" r:id="rId51"/>
+    <hyperlink ref="C27" r:id="rId52"/>
+    <hyperlink ref="A28" r:id="rId53"/>
+    <hyperlink ref="C28" r:id="rId54"/>
+    <hyperlink ref="A29" r:id="rId55"/>
+    <hyperlink ref="C29" r:id="rId56"/>
+    <hyperlink ref="A30" r:id="rId57"/>
+    <hyperlink ref="C30" r:id="rId58"/>
+    <hyperlink ref="A31" r:id="rId59"/>
+    <hyperlink ref="C31" r:id="rId60"/>
+    <hyperlink ref="A32" r:id="rId61"/>
+    <hyperlink ref="C32" r:id="rId62"/>
+    <hyperlink ref="A33" r:id="rId63"/>
+    <hyperlink ref="C33" r:id="rId64"/>
+    <hyperlink ref="A34" r:id="rId65"/>
+    <hyperlink ref="C34" r:id="rId66"/>
+    <hyperlink ref="A35" r:id="rId67"/>
+    <hyperlink ref="C35" r:id="rId68"/>
+    <hyperlink ref="A36" r:id="rId69"/>
+    <hyperlink ref="C36" r:id="rId70"/>
+    <hyperlink ref="A37" r:id="rId71"/>
+    <hyperlink ref="C37" r:id="rId72"/>
+    <hyperlink ref="A38" r:id="rId73"/>
+    <hyperlink ref="C38" r:id="rId74"/>
+    <hyperlink ref="A39" r:id="rId75"/>
+    <hyperlink ref="C39" r:id="rId76"/>
+    <hyperlink ref="A40" r:id="rId77"/>
+    <hyperlink ref="C40" r:id="rId78"/>
+    <hyperlink ref="A41" r:id="rId79"/>
+    <hyperlink ref="C41" r:id="rId80"/>
+    <hyperlink ref="A42" r:id="rId81"/>
+    <hyperlink ref="C42" r:id="rId82"/>
+    <hyperlink ref="A43" r:id="rId83"/>
+    <hyperlink ref="C43" r:id="rId84"/>
+    <hyperlink ref="A44" r:id="rId85"/>
+    <hyperlink ref="C44" r:id="rId86"/>
+    <hyperlink ref="A45" r:id="rId87"/>
+    <hyperlink ref="C45" r:id="rId88"/>
+    <hyperlink ref="A46" r:id="rId89"/>
+    <hyperlink ref="C46" r:id="rId90"/>
+    <hyperlink ref="A47" r:id="rId91"/>
+    <hyperlink ref="C47" r:id="rId92"/>
+    <hyperlink ref="A48" r:id="rId93"/>
+    <hyperlink ref="C48" r:id="rId94"/>
+    <hyperlink ref="A49" r:id="rId95"/>
+    <hyperlink ref="C49" r:id="rId96"/>
+    <hyperlink ref="A50" r:id="rId97"/>
+    <hyperlink ref="C50" r:id="rId98"/>
+    <hyperlink ref="A51" r:id="rId99"/>
+    <hyperlink ref="C51" r:id="rId100"/>
+    <hyperlink ref="A52" r:id="rId101"/>
+    <hyperlink ref="C52" r:id="rId102"/>
+    <hyperlink ref="A53" r:id="rId103"/>
+    <hyperlink ref="C53" r:id="rId104"/>
+    <hyperlink ref="A54" r:id="rId105"/>
+    <hyperlink ref="C54" r:id="rId106"/>
+    <hyperlink ref="A55" r:id="rId107"/>
+    <hyperlink ref="C55" r:id="rId108"/>
+    <hyperlink ref="A56" r:id="rId109"/>
+    <hyperlink ref="C56" r:id="rId110"/>
+    <hyperlink ref="A57" r:id="rId111"/>
+    <hyperlink ref="C57" r:id="rId112"/>
+    <hyperlink ref="A58" r:id="rId113"/>
+    <hyperlink ref="C58" r:id="rId114"/>
+    <hyperlink ref="A59" r:id="rId115"/>
+    <hyperlink ref="C59" r:id="rId116"/>
+    <hyperlink ref="A60" r:id="rId117"/>
+    <hyperlink ref="C60" r:id="rId118"/>
+    <hyperlink ref="A61" r:id="rId119"/>
+    <hyperlink ref="C61" r:id="rId120"/>
+    <hyperlink ref="A62" r:id="rId121"/>
+    <hyperlink ref="C62" r:id="rId122"/>
+    <hyperlink ref="A63" r:id="rId123"/>
+    <hyperlink ref="C63" r:id="rId124"/>
+    <hyperlink ref="A64" r:id="rId125"/>
+    <hyperlink ref="C64" r:id="rId126"/>
+    <hyperlink ref="A65" r:id="rId127"/>
+    <hyperlink ref="C65" r:id="rId128"/>
+    <hyperlink ref="A66" r:id="rId129"/>
+    <hyperlink ref="C66" r:id="rId130"/>
+    <hyperlink ref="A67" r:id="rId131"/>
+    <hyperlink ref="C67" r:id="rId132"/>
+    <hyperlink ref="A68" r:id="rId133"/>
+    <hyperlink ref="C68" r:id="rId134"/>
+    <hyperlink ref="A69" r:id="rId135"/>
+    <hyperlink ref="C69" r:id="rId136"/>
+    <hyperlink ref="A70" r:id="rId137"/>
+    <hyperlink ref="C70" r:id="rId138"/>
+    <hyperlink ref="A71" r:id="rId139"/>
+    <hyperlink ref="C71" r:id="rId140"/>
+    <hyperlink ref="A72" r:id="rId141"/>
+    <hyperlink ref="C72" r:id="rId142"/>
+    <hyperlink ref="A73" r:id="rId143"/>
+    <hyperlink ref="C73" r:id="rId144"/>
+    <hyperlink ref="A74" r:id="rId145"/>
+    <hyperlink ref="C74" r:id="rId146"/>
+    <hyperlink ref="A75" r:id="rId147"/>
+    <hyperlink ref="C75" r:id="rId148"/>
+    <hyperlink ref="A76" r:id="rId149"/>
+    <hyperlink ref="C76" r:id="rId150"/>
+    <hyperlink ref="A77" r:id="rId151"/>
+    <hyperlink ref="C77" r:id="rId152"/>
+    <hyperlink ref="A78" r:id="rId153"/>
+    <hyperlink ref="C78" r:id="rId154"/>
+    <hyperlink ref="A79" r:id="rId155"/>
+    <hyperlink ref="C79" r:id="rId156"/>
+    <hyperlink ref="A80" r:id="rId157"/>
+    <hyperlink ref="C80" r:id="rId158"/>
+    <hyperlink ref="A81" r:id="rId159"/>
+    <hyperlink ref="C81" r:id="rId160"/>
+    <hyperlink ref="A82" r:id="rId161"/>
+    <hyperlink ref="C82" r:id="rId162"/>
+    <hyperlink ref="A83" r:id="rId163"/>
+    <hyperlink ref="C83" r:id="rId164"/>
+    <hyperlink ref="A84" r:id="rId165"/>
+    <hyperlink ref="C84" r:id="rId166"/>
+    <hyperlink ref="A85" r:id="rId167"/>
+    <hyperlink ref="C85" r:id="rId168"/>
+    <hyperlink ref="A86" r:id="rId169"/>
+    <hyperlink ref="C86" r:id="rId170"/>
+    <hyperlink ref="A87" r:id="rId171"/>
+    <hyperlink ref="C87" r:id="rId172"/>
+    <hyperlink ref="A88" r:id="rId173"/>
+    <hyperlink ref="C88" r:id="rId174"/>
+    <hyperlink ref="A89" r:id="rId175"/>
+    <hyperlink ref="C89" r:id="rId176"/>
+    <hyperlink ref="A90" r:id="rId177"/>
+    <hyperlink ref="C90" r:id="rId178"/>
+    <hyperlink ref="A91" r:id="rId179"/>
+    <hyperlink ref="C91" r:id="rId180"/>
+    <hyperlink ref="A92" r:id="rId181"/>
+    <hyperlink ref="C92" r:id="rId182"/>
+    <hyperlink ref="A93" r:id="rId183"/>
+    <hyperlink ref="C93" r:id="rId184"/>
+    <hyperlink ref="A94" r:id="rId185"/>
+    <hyperlink ref="C94" r:id="rId186"/>
+    <hyperlink ref="A95" r:id="rId187"/>
+    <hyperlink ref="C95" r:id="rId188"/>
+    <hyperlink ref="A96" r:id="rId189"/>
+    <hyperlink ref="C96" r:id="rId190"/>
+    <hyperlink ref="A97" r:id="rId191"/>
+    <hyperlink ref="C97" r:id="rId192"/>
+    <hyperlink ref="A98" r:id="rId193"/>
+    <hyperlink ref="C98" r:id="rId194"/>
+    <hyperlink ref="A99" r:id="rId195"/>
+    <hyperlink ref="C99" r:id="rId196"/>
+    <hyperlink ref="A100" r:id="rId197"/>
+    <hyperlink ref="C100" r:id="rId198"/>
+    <hyperlink ref="A101" r:id="rId199"/>
+    <hyperlink ref="C101" r:id="rId200"/>
+    <hyperlink ref="A102" r:id="rId201"/>
+    <hyperlink ref="C102" r:id="rId202"/>
+    <hyperlink ref="A103" r:id="rId203"/>
+    <hyperlink ref="C103" r:id="rId204"/>
+    <hyperlink ref="A104" r:id="rId205"/>
+    <hyperlink ref="C104" r:id="rId206"/>
+    <hyperlink ref="A105" r:id="rId207"/>
+    <hyperlink ref="C105" r:id="rId208"/>
+    <hyperlink ref="A106" r:id="rId209"/>
+    <hyperlink ref="C106" r:id="rId210"/>
+    <hyperlink ref="A107" r:id="rId211"/>
+    <hyperlink ref="C107" r:id="rId212"/>
+    <hyperlink ref="A108" r:id="rId213"/>
+    <hyperlink ref="C108" r:id="rId214"/>
+    <hyperlink ref="A109" r:id="rId215"/>
+    <hyperlink ref="C109" r:id="rId216"/>
+    <hyperlink ref="A110" r:id="rId217"/>
+    <hyperlink ref="C110" r:id="rId218"/>
+    <hyperlink ref="A111" r:id="rId219"/>
+    <hyperlink ref="C111" r:id="rId220"/>
+    <hyperlink ref="A112" r:id="rId221"/>
+    <hyperlink ref="C112" r:id="rId222"/>
+    <hyperlink ref="A113" r:id="rId223"/>
+    <hyperlink ref="C113" r:id="rId224"/>
+    <hyperlink ref="A114" r:id="rId225"/>
+    <hyperlink ref="C114" r:id="rId226"/>
+    <hyperlink ref="A115" r:id="rId227"/>
+    <hyperlink ref="C115" r:id="rId228"/>
+    <hyperlink ref="A116" r:id="rId229"/>
+    <hyperlink ref="C116" r:id="rId230"/>
+    <hyperlink ref="A117" r:id="rId231"/>
+    <hyperlink ref="C117" r:id="rId232"/>
+    <hyperlink ref="A118" r:id="rId233"/>
+    <hyperlink ref="C118" r:id="rId234"/>
+    <hyperlink ref="A119" r:id="rId235"/>
+    <hyperlink ref="C119" r:id="rId236"/>
+    <hyperlink ref="A120" r:id="rId237"/>
+    <hyperlink ref="C120" r:id="rId238"/>
+    <hyperlink ref="A121" r:id="rId239"/>
+    <hyperlink ref="C121" r:id="rId240"/>
+    <hyperlink ref="A122" r:id="rId241"/>
+    <hyperlink ref="C122" r:id="rId242"/>
+    <hyperlink ref="A123" r:id="rId243"/>
+    <hyperlink ref="C123" r:id="rId244"/>
+    <hyperlink ref="A124" r:id="rId245"/>
+    <hyperlink ref="C124" r:id="rId246"/>
+    <hyperlink ref="A125" r:id="rId247"/>
+    <hyperlink ref="C125" r:id="rId248"/>
+    <hyperlink ref="A126" r:id="rId249"/>
+    <hyperlink ref="C126" r:id="rId250"/>
+    <hyperlink ref="A127" r:id="rId251"/>
+    <hyperlink ref="C127" r:id="rId252"/>
+    <hyperlink ref="A128" r:id="rId253"/>
+    <hyperlink ref="C128" r:id="rId254"/>
+    <hyperlink ref="A129" r:id="rId255"/>
+    <hyperlink ref="C129" r:id="rId256"/>
+    <hyperlink ref="A130" r:id="rId257"/>
+    <hyperlink ref="C130" r:id="rId258"/>
+    <hyperlink ref="A131" r:id="rId259"/>
+    <hyperlink ref="C131" r:id="rId260"/>
+    <hyperlink ref="A132" r:id="rId261"/>
+    <hyperlink ref="C132" r:id="rId262"/>
+    <hyperlink ref="A133" r:id="rId263"/>
+    <hyperlink ref="C133" r:id="rId264"/>
+    <hyperlink ref="A134" r:id="rId265"/>
+    <hyperlink ref="C134" r:id="rId266"/>
+    <hyperlink ref="A135" r:id="rId267"/>
+    <hyperlink ref="C135" r:id="rId268"/>
+    <hyperlink ref="A136" r:id="rId269"/>
+    <hyperlink ref="C136" r:id="rId270"/>
+    <hyperlink ref="A137" r:id="rId271"/>
+    <hyperlink ref="C137" r:id="rId272"/>
+    <hyperlink ref="A138" r:id="rId273"/>
+    <hyperlink ref="C138" r:id="rId274"/>
+    <hyperlink ref="A139" r:id="rId275"/>
+    <hyperlink ref="C139" r:id="rId276"/>
+    <hyperlink ref="A140" r:id="rId277"/>
+    <hyperlink ref="C140" r:id="rId278"/>
+    <hyperlink ref="A141" r:id="rId279"/>
+    <hyperlink ref="C141" r:id="rId280"/>
+    <hyperlink ref="A142" r:id="rId281"/>
+    <hyperlink ref="C142" r:id="rId282"/>
+    <hyperlink ref="A143" r:id="rId283"/>
+    <hyperlink ref="C143" r:id="rId284"/>
+    <hyperlink ref="A144" r:id="rId285"/>
+    <hyperlink ref="C144" r:id="rId286"/>
+    <hyperlink ref="A145" r:id="rId287"/>
+    <hyperlink ref="C145" r:id="rId288"/>
+    <hyperlink ref="A146" r:id="rId289"/>
+    <hyperlink ref="C146" r:id="rId290"/>
+    <hyperlink ref="A147" r:id="rId291"/>
+    <hyperlink ref="C147" r:id="rId292"/>
+    <hyperlink ref="A148" r:id="rId293"/>
+    <hyperlink ref="C148" r:id="rId294"/>
+    <hyperlink ref="A149" r:id="rId295"/>
+    <hyperlink ref="C149" r:id="rId296"/>
+    <hyperlink ref="A150" r:id="rId297"/>
+    <hyperlink ref="C150" r:id="rId298"/>
+    <hyperlink ref="A151" r:id="rId299"/>
+    <hyperlink ref="C151" r:id="rId300"/>
+    <hyperlink ref="A152" r:id="rId301"/>
+    <hyperlink ref="C152" r:id="rId302"/>
+    <hyperlink ref="A153" r:id="rId303"/>
+    <hyperlink ref="C153" r:id="rId304"/>
+    <hyperlink ref="A154" r:id="rId305"/>
+    <hyperlink ref="C154" r:id="rId306"/>
+    <hyperlink ref="A155" r:id="rId307"/>
+    <hyperlink ref="C155" r:id="rId308"/>
+    <hyperlink ref="A156" r:id="rId309"/>
+    <hyperlink ref="C156" r:id="rId310"/>
+    <hyperlink ref="A157" r:id="rId311"/>
+    <hyperlink ref="C157" r:id="rId312"/>
+    <hyperlink ref="A158" r:id="rId313"/>
+    <hyperlink ref="C158" r:id="rId314"/>
+    <hyperlink ref="A159" r:id="rId315"/>
+    <hyperlink ref="C159" r:id="rId316"/>
+    <hyperlink ref="A160" r:id="rId317"/>
+    <hyperlink ref="C160" r:id="rId318"/>
+    <hyperlink ref="A161" r:id="rId319"/>
+    <hyperlink ref="C161" r:id="rId320"/>
+    <hyperlink ref="A162" r:id="rId321"/>
+    <hyperlink ref="C162" r:id="rId322"/>
+    <hyperlink ref="A163" r:id="rId323"/>
+    <hyperlink ref="C163" r:id="rId324"/>
+    <hyperlink ref="A164" r:id="rId325"/>
+    <hyperlink ref="C164" r:id="rId326"/>
+    <hyperlink ref="A165" r:id="rId327"/>
+    <hyperlink ref="C165" r:id="rId328"/>
+    <hyperlink ref="A166" r:id="rId329"/>
+    <hyperlink ref="C166" r:id="rId330"/>
+    <hyperlink ref="A167" r:id="rId331"/>
+    <hyperlink ref="C167" r:id="rId332"/>
+    <hyperlink ref="A168" r:id="rId333"/>
+    <hyperlink ref="C168" r:id="rId334"/>
+    <hyperlink ref="A169" r:id="rId335"/>
+    <hyperlink ref="C169" r:id="rId336"/>
+    <hyperlink ref="A170" r:id="rId337"/>
+    <hyperlink ref="C170" r:id="rId338"/>
+    <hyperlink ref="A171" r:id="rId339"/>
+    <hyperlink ref="C171" r:id="rId340"/>
+    <hyperlink ref="A172" r:id="rId341"/>
+    <hyperlink ref="C172" r:id="rId342"/>
+    <hyperlink ref="A173" r:id="rId343"/>
+    <hyperlink ref="C173" r:id="rId344"/>
+    <hyperlink ref="A174" r:id="rId345"/>
+    <hyperlink ref="C174" r:id="rId346"/>
+    <hyperlink ref="A175" r:id="rId347"/>
+    <hyperlink ref="C175" r:id="rId348"/>
+    <hyperlink ref="A176" r:id="rId349"/>
+    <hyperlink ref="C176" r:id="rId350"/>
+    <hyperlink ref="A177" r:id="rId351"/>
+    <hyperlink ref="C177" r:id="rId352"/>
+    <hyperlink ref="A178" r:id="rId353"/>
+    <hyperlink ref="C178" r:id="rId354"/>
+    <hyperlink ref="A179" r:id="rId355"/>
+    <hyperlink ref="C179" r:id="rId356"/>
+    <hyperlink ref="A180" r:id="rId357"/>
+    <hyperlink ref="C180" r:id="rId358"/>
+    <hyperlink ref="A181" r:id="rId359"/>
+    <hyperlink ref="C181" r:id="rId360"/>
+    <hyperlink ref="A182" r:id="rId361"/>
+    <hyperlink ref="C182" r:id="rId362"/>
+    <hyperlink ref="A183" r:id="rId363"/>
+    <hyperlink ref="C183" r:id="rId364"/>
+    <hyperlink ref="A184" r:id="rId365"/>
+    <hyperlink ref="C184" r:id="rId366"/>
+    <hyperlink ref="A185" r:id="rId367"/>
+    <hyperlink ref="C185" r:id="rId368"/>
+    <hyperlink ref="A186" r:id="rId369"/>
+    <hyperlink ref="C186" r:id="rId370"/>
+    <hyperlink ref="A187" r:id="rId371"/>
+    <hyperlink ref="C187" r:id="rId372"/>
+    <hyperlink ref="A188" r:id="rId373"/>
+    <hyperlink ref="C188" r:id="rId374"/>
+    <hyperlink ref="A189" r:id="rId375"/>
+    <hyperlink ref="C189" r:id="rId376"/>
+    <hyperlink ref="A190" r:id="rId377"/>
+    <hyperlink ref="C190" r:id="rId378"/>
+    <hyperlink ref="A191" r:id="rId379"/>
+    <hyperlink ref="C191" r:id="rId380"/>
+    <hyperlink ref="A192" r:id="rId381"/>
+    <hyperlink ref="C192" r:id="rId382"/>
+    <hyperlink ref="A193" r:id="rId383"/>
+    <hyperlink ref="C193" r:id="rId384"/>
+    <hyperlink ref="A194" r:id="rId385"/>
+    <hyperlink ref="C194" r:id="rId386"/>
+    <hyperlink ref="A195" r:id="rId387"/>
+    <hyperlink ref="C195" r:id="rId388"/>
+    <hyperlink ref="A196" r:id="rId389"/>
+    <hyperlink ref="C196" r:id="rId390"/>
+    <hyperlink ref="A197" r:id="rId391"/>
+    <hyperlink ref="C197" r:id="rId392"/>
+    <hyperlink ref="A198" r:id="rId393"/>
+    <hyperlink ref="C198" r:id="rId394"/>
+    <hyperlink ref="A199" r:id="rId395"/>
+    <hyperlink ref="C199" r:id="rId396"/>
+    <hyperlink ref="A200" r:id="rId397"/>
+    <hyperlink ref="C200" r:id="rId398"/>
+    <hyperlink ref="A201" r:id="rId399"/>
+    <hyperlink ref="C201" r:id="rId400"/>
+    <hyperlink ref="A202" r:id="rId401"/>
+    <hyperlink ref="C202" r:id="rId402"/>
+    <hyperlink ref="A203" r:id="rId403"/>
+    <hyperlink ref="C203" r:id="rId404"/>
+    <hyperlink ref="A204" r:id="rId405"/>
+    <hyperlink ref="C204" r:id="rId406"/>
+    <hyperlink ref="A205" r:id="rId407"/>
+    <hyperlink ref="C205" r:id="rId408"/>
+    <hyperlink ref="A206" r:id="rId409"/>
+    <hyperlink ref="C206" r:id="rId410"/>
+    <hyperlink ref="A207" r:id="rId411"/>
+    <hyperlink ref="C207" r:id="rId412"/>
+    <hyperlink ref="A208" r:id="rId413"/>
+    <hyperlink ref="C208" r:id="rId414"/>
+    <hyperlink ref="A209" r:id="rId415"/>
+    <hyperlink ref="C209" r:id="rId416"/>
+    <hyperlink ref="A210" r:id="rId417"/>
+    <hyperlink ref="C210" r:id="rId418"/>
+    <hyperlink ref="A211" r:id="rId419"/>
+    <hyperlink ref="C211" r:id="rId420"/>
+    <hyperlink ref="A212" r:id="rId421"/>
+    <hyperlink ref="C212" r:id="rId422"/>
+    <hyperlink ref="A213" r:id="rId423"/>
+    <hyperlink ref="C213" r:id="rId424"/>
+    <hyperlink ref="A214" r:id="rId425"/>
+    <hyperlink ref="C214" r:id="rId426"/>
+    <hyperlink ref="A215" r:id="rId427"/>
+    <hyperlink ref="C215" r:id="rId428"/>
+    <hyperlink ref="A216" r:id="rId429"/>
+    <hyperlink ref="C216" r:id="rId430"/>
+    <hyperlink ref="A217" r:id="rId431"/>
+    <hyperlink ref="C217" r:id="rId432"/>
+    <hyperlink ref="A218" r:id="rId433"/>
+    <hyperlink ref="C218" r:id="rId434"/>
+    <hyperlink ref="A219" r:id="rId435"/>
+    <hyperlink ref="C219" r:id="rId436"/>
+    <hyperlink ref="A220" r:id="rId437"/>
+    <hyperlink ref="C220" r:id="rId438"/>
+    <hyperlink ref="A221" r:id="rId439"/>
+    <hyperlink ref="C221" r:id="rId440"/>
+    <hyperlink ref="A222" r:id="rId441"/>
+    <hyperlink ref="C222" r:id="rId442"/>
+    <hyperlink ref="A223" r:id="rId443"/>
+    <hyperlink ref="C223" r:id="rId444"/>
+    <hyperlink ref="A224" r:id="rId445"/>
+    <hyperlink ref="C224" r:id="rId446"/>
+    <hyperlink ref="A225" r:id="rId447"/>
+    <hyperlink ref="C225" r:id="rId448"/>
+    <hyperlink ref="A226" r:id="rId449"/>
+    <hyperlink ref="C226" r:id="rId450"/>
+    <hyperlink ref="A227" r:id="rId451"/>
+    <hyperlink ref="C227" r:id="rId452"/>
+    <hyperlink ref="A228" r:id="rId453"/>
+    <hyperlink ref="C228" r:id="rId454"/>
+    <hyperlink ref="A229" r:id="rId455"/>
+    <hyperlink ref="C229" r:id="rId456"/>
+    <hyperlink ref="A230" r:id="rId457"/>
+    <hyperlink ref="C230" r:id="rId458"/>
+    <hyperlink ref="A231" r:id="rId459"/>
+    <hyperlink ref="C231" r:id="rId460"/>
+    <hyperlink ref="A232" r:id="rId461"/>
+    <hyperlink ref="C232" r:id="rId462"/>
+    <hyperlink ref="A233" r:id="rId463"/>
+    <hyperlink ref="C233" r:id="rId464"/>
+    <hyperlink ref="A234" r:id="rId465"/>
+    <hyperlink ref="C234" r:id="rId466"/>
+    <hyperlink ref="A235" r:id="rId467"/>
+    <hyperlink ref="C235" r:id="rId468"/>
+    <hyperlink ref="A236" r:id="rId469"/>
+    <hyperlink ref="C236" r:id="rId470"/>
+    <hyperlink ref="A237" r:id="rId471"/>
+    <hyperlink ref="C237" r:id="rId472"/>
+    <hyperlink ref="A238" r:id="rId473"/>
+    <hyperlink ref="C238" r:id="rId474"/>
+    <hyperlink ref="A239" r:id="rId475"/>
+    <hyperlink ref="C239" r:id="rId476"/>
+    <hyperlink ref="A240" r:id="rId477"/>
+    <hyperlink ref="C240" r:id="rId478"/>
+    <hyperlink ref="A241" r:id="rId479"/>
+    <hyperlink ref="C241" r:id="rId480"/>
+    <hyperlink ref="A242" r:id="rId481"/>
+    <hyperlink ref="C242" r:id="rId482"/>
+    <hyperlink ref="A243" r:id="rId483"/>
+    <hyperlink ref="C243" r:id="rId484"/>
+    <hyperlink ref="A244" r:id="rId485"/>
+    <hyperlink ref="C244" r:id="rId486"/>
+    <hyperlink ref="A245" r:id="rId487"/>
+    <hyperlink ref="C245" r:id="rId488"/>
+    <hyperlink ref="A246" r:id="rId489"/>
+    <hyperlink ref="C246" r:id="rId490"/>
+    <hyperlink ref="A247" r:id="rId491"/>
+    <hyperlink ref="C247" r:id="rId492"/>
+    <hyperlink ref="A248" r:id="rId493"/>
+    <hyperlink ref="C248" r:id="rId494"/>
+    <hyperlink ref="A249" r:id="rId495"/>
+    <hyperlink ref="C249" r:id="rId496"/>
+    <hyperlink ref="A250" r:id="rId497"/>
+    <hyperlink ref="C250" r:id="rId498"/>
+    <hyperlink ref="A251" r:id="rId499"/>
+    <hyperlink ref="C251" r:id="rId500"/>
+    <hyperlink ref="A252" r:id="rId501"/>
+    <hyperlink ref="C252" r:id="rId502"/>
+    <hyperlink ref="A253" r:id="rId503"/>
+    <hyperlink ref="C253" r:id="rId504"/>
+    <hyperlink ref="A254" r:id="rId505"/>
+    <hyperlink ref="C254" r:id="rId506"/>
+    <hyperlink ref="A255" r:id="rId507"/>
+    <hyperlink ref="C255" r:id="rId508"/>
+    <hyperlink ref="A256" r:id="rId509"/>
+    <hyperlink ref="C256" r:id="rId510"/>
+    <hyperlink ref="A257" r:id="rId511"/>
+    <hyperlink ref="C257" r:id="rId512"/>
+    <hyperlink ref="A258" r:id="rId513"/>
+    <hyperlink ref="C258" r:id="rId514"/>
+    <hyperlink ref="A259" r:id="rId515"/>
+    <hyperlink ref="C259" r:id="rId516"/>
+    <hyperlink ref="A260" r:id="rId517"/>
+    <hyperlink ref="C260" r:id="rId518"/>
+    <hyperlink ref="A261" r:id="rId519"/>
+    <hyperlink ref="C261" r:id="rId520"/>
+    <hyperlink ref="A262" r:id="rId521"/>
+    <hyperlink ref="C262" r:id="rId522"/>
+    <hyperlink ref="A263" r:id="rId523"/>
+    <hyperlink ref="C263" r:id="rId524"/>
+    <hyperlink ref="A264" r:id="rId525"/>
+    <hyperlink ref="C264" r:id="rId526"/>
+    <hyperlink ref="A265" r:id="rId527"/>
+    <hyperlink ref="C265" r:id="rId528"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
